--- a/SBTF_data/ml4rt_output/trained_models/m2/error_estimates.xlsx
+++ b/SBTF_data/ml4rt_output/trained_models/m2/error_estimates.xlsx
@@ -528,10 +528,10 @@
         <v>7575860.082751503</v>
       </c>
       <c r="E2" t="n">
-        <v>422930.0227351216</v>
+        <v>422896.5371909979</v>
       </c>
       <c r="F2" t="n">
-        <v>7575702.081869792</v>
+        <v>7575645.375798986</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -551,13 +551,13 @@
         <v>186.1597965033725</v>
       </c>
       <c r="L2" t="n">
-        <v>-200.2985391020193</v>
+        <v>-233.7840832257643</v>
       </c>
       <c r="M2" t="n">
-        <v>-158.0008817110211</v>
+        <v>-214.7069525169209</v>
       </c>
       <c r="N2" t="n">
-        <v>255.1152355071394</v>
+        <v>317.417820906159</v>
       </c>
       <c r="O2" t="n">
         <v>261.8899907927122</v>
@@ -577,10 +577,10 @@
         <v>7575860.082751503</v>
       </c>
       <c r="E3" t="n">
-        <v>422937.4573424507</v>
+        <v>422979.4530268851</v>
       </c>
       <c r="F3" t="n">
-        <v>7575668.127323314</v>
+        <v>7575666.59598749</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -600,13 +600,13 @@
         <v>186.1597965033725</v>
       </c>
       <c r="L3" t="n">
-        <v>-192.8639317729394</v>
+        <v>-150.8682473385707</v>
       </c>
       <c r="M3" t="n">
-        <v>-191.955428189598</v>
+        <v>-193.4867640128359</v>
       </c>
       <c r="N3" t="n">
-        <v>272.1091372783519</v>
+        <v>245.3535324856176</v>
       </c>
       <c r="O3" t="n">
         <v>261.8899907927122</v>
@@ -626,10 +626,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E4" t="n">
-        <v>427152.0336114674</v>
+        <v>427172.5711644453</v>
       </c>
       <c r="F4" t="n">
-        <v>7565713.969723538</v>
+        <v>7565666.046757984</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -649,13 +649,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L4" t="n">
-        <v>-169.4284707654151</v>
+        <v>-148.8909177875612</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5770082650706172</v>
+        <v>-47.34595728851855</v>
       </c>
       <c r="N4" t="n">
-        <v>169.429453296778</v>
+        <v>156.2374637248971</v>
       </c>
       <c r="O4" t="n">
         <v>208.0969103936671</v>
@@ -675,10 +675,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E5" t="n">
-        <v>427162.2068045043</v>
+        <v>427215.3720748585</v>
       </c>
       <c r="F5" t="n">
-        <v>7565739.852239523</v>
+        <v>7565714.62854069</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -698,13 +698,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L5" t="n">
-        <v>-159.2552777284873</v>
+        <v>-106.090007374296</v>
       </c>
       <c r="M5" t="n">
-        <v>26.45952425058931</v>
+        <v>1.235825417563319</v>
       </c>
       <c r="N5" t="n">
-        <v>161.4383780516428</v>
+        <v>106.0972050958029</v>
       </c>
       <c r="O5" t="n">
         <v>208.0969103936671</v>
@@ -724,10 +724,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E6" t="n">
-        <v>427176.6295251257</v>
+        <v>427186.8506430052</v>
       </c>
       <c r="F6" t="n">
-        <v>7565663.971399949</v>
+        <v>7565633.966721508</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -747,13 +747,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L6" t="n">
-        <v>-144.8325571071473</v>
+        <v>-134.6114392276504</v>
       </c>
       <c r="M6" t="n">
-        <v>-49.42131532356143</v>
+        <v>-79.42599376477301</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0324671646705</v>
+        <v>156.296922735098</v>
       </c>
       <c r="O6" t="n">
         <v>208.0969103936671</v>
@@ -773,10 +773,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E7" t="n">
-        <v>427164.7344895184</v>
+        <v>427157.6203468901</v>
       </c>
       <c r="F7" t="n">
-        <v>7565670.317313048</v>
+        <v>7565687.949365123</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -796,13 +796,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L7" t="n">
-        <v>-156.7275927144219</v>
+        <v>-163.8417353427503</v>
       </c>
       <c r="M7" t="n">
-        <v>-43.0754022244364</v>
+        <v>-25.44335014931858</v>
       </c>
       <c r="N7" t="n">
-        <v>162.5393139977363</v>
+        <v>165.805543655647</v>
       </c>
       <c r="O7" t="n">
         <v>208.0969103936671</v>
@@ -822,10 +822,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E8" t="n">
-        <v>427741.8667848944</v>
+        <v>427751.1405891837</v>
       </c>
       <c r="F8" t="n">
-        <v>7565850.271460743</v>
+        <v>7565804.527959687</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -845,13 +845,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L8" t="n">
-        <v>420.404702661559</v>
+        <v>429.678506950906</v>
       </c>
       <c r="M8" t="n">
-        <v>136.878745470196</v>
+        <v>91.13524441421032</v>
       </c>
       <c r="N8" t="n">
-        <v>442.1265712230475</v>
+        <v>439.2371251499555</v>
       </c>
       <c r="O8" t="n">
         <v>208.0969103936671</v>
@@ -871,10 +871,10 @@
         <v>7565713.392715272</v>
       </c>
       <c r="E9" t="n">
-        <v>427123.9254611499</v>
+        <v>427149.8438661259</v>
       </c>
       <c r="F9" t="n">
-        <v>7565699.105038716</v>
+        <v>7565665.393813922</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -894,13 +894,13 @@
         <v>200.9395686058948</v>
       </c>
       <c r="L9" t="n">
-        <v>-197.5366210828652</v>
+        <v>-171.6182161069009</v>
       </c>
       <c r="M9" t="n">
-        <v>-14.28767655603588</v>
+        <v>-47.99890135042369</v>
       </c>
       <c r="N9" t="n">
-        <v>198.052655549491</v>
+        <v>178.2041150775219</v>
       </c>
       <c r="O9" t="n">
         <v>208.0969103936671</v>
@@ -920,10 +920,10 @@
         <v>7565804.191765676</v>
       </c>
       <c r="E10" t="n">
-        <v>427586.5046648224</v>
+        <v>427557.1001272788</v>
       </c>
       <c r="F10" t="n">
-        <v>7565708.028380575</v>
+        <v>7565677.334225638</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -943,13 +943,13 @@
         <v>626.5592236761004</v>
       </c>
       <c r="L10" t="n">
-        <v>210.5473573903437</v>
+        <v>181.1428198468057</v>
       </c>
       <c r="M10" t="n">
-        <v>-96.16338510159403</v>
+        <v>-126.8575400384143</v>
       </c>
       <c r="N10" t="n">
-        <v>231.4683268575953</v>
+        <v>221.1460075304327</v>
       </c>
       <c r="O10" t="n">
         <v>726.3905669176061</v>
@@ -969,10 +969,10 @@
         <v>7565804.191765676</v>
       </c>
       <c r="E11" t="n">
-        <v>427645.6988875376</v>
+        <v>427614.2900302997</v>
       </c>
       <c r="F11" t="n">
-        <v>7565968.088693802</v>
+        <v>7565826.142809385</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -992,13 +992,13 @@
         <v>626.5592236761004</v>
       </c>
       <c r="L11" t="n">
-        <v>269.7415801055613</v>
+        <v>238.3327228676644</v>
       </c>
       <c r="M11" t="n">
-        <v>163.8969281259924</v>
+        <v>21.95104370824993</v>
       </c>
       <c r="N11" t="n">
-        <v>315.6306751362764</v>
+        <v>239.3414613254386</v>
       </c>
       <c r="O11" t="n">
         <v>726.3905669176061</v>
@@ -1018,10 +1018,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E12" t="n">
-        <v>427256.8844273394</v>
+        <v>427310.2943374377</v>
       </c>
       <c r="F12" t="n">
-        <v>7565727.174439804</v>
+        <v>7565693.07484519</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -1041,13 +1041,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L12" t="n">
-        <v>-25.94562713144114</v>
+        <v>27.46428296691738</v>
       </c>
       <c r="M12" t="n">
-        <v>209.3356250701472</v>
+        <v>175.23603045661</v>
       </c>
       <c r="N12" t="n">
-        <v>210.9373828669376</v>
+        <v>177.3751764173242</v>
       </c>
       <c r="O12" t="n">
         <v>92.89570646527693</v>
@@ -1067,10 +1067,10 @@
         <v>7565517.838814734</v>
       </c>
       <c r="E13" t="n">
-        <v>427264.0443215476</v>
+        <v>427379.8270366949</v>
       </c>
       <c r="F13" t="n">
-        <v>7565567.574417743</v>
+        <v>7565580.581062282</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>5.385668066951136</v>
       </c>
       <c r="L13" t="n">
-        <v>-18.78573292325018</v>
+        <v>96.99698222405277</v>
       </c>
       <c r="M13" t="n">
-        <v>49.7356030093506</v>
+        <v>62.74224754888564</v>
       </c>
       <c r="N13" t="n">
-        <v>53.16515746395763</v>
+        <v>115.520579067363</v>
       </c>
       <c r="O13" t="n">
         <v>92.89570646527693</v>
@@ -1116,10 +1116,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E14" t="n">
-        <v>436608.5264342836</v>
+        <v>436765.0127815765</v>
       </c>
       <c r="F14" t="n">
-        <v>7550817.701856584</v>
+        <v>7550839.498002554</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1139,13 +1139,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L14" t="n">
-        <v>-230.3106599338353</v>
+        <v>-73.82431264087791</v>
       </c>
       <c r="M14" t="n">
-        <v>-214.6616829419509</v>
+        <v>-192.865536971949</v>
       </c>
       <c r="N14" t="n">
-        <v>314.837479031054</v>
+        <v>206.5118507213964</v>
       </c>
       <c r="O14" t="n">
         <v>333.0864405745596</v>
@@ -1165,10 +1165,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E15" t="n">
-        <v>436455.9551819483</v>
+        <v>436485.1114649636</v>
       </c>
       <c r="F15" t="n">
-        <v>7550661.56646823</v>
+        <v>7550639.684573976</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1188,13 +1188,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L15" t="n">
-        <v>-382.8819122691057</v>
+        <v>-353.7256292538368</v>
       </c>
       <c r="M15" t="n">
-        <v>-370.7970712967217</v>
+        <v>-392.678965549916</v>
       </c>
       <c r="N15" t="n">
-        <v>533.0000251642332</v>
+        <v>528.5059988083153</v>
       </c>
       <c r="O15" t="n">
         <v>333.0864405745596</v>
@@ -1214,10 +1214,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E16" t="n">
-        <v>436662.3215846251</v>
+        <v>436677.6591651005</v>
       </c>
       <c r="F16" t="n">
-        <v>7550762.855001926</v>
+        <v>7550751.700283999</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1237,13 +1237,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L16" t="n">
-        <v>-176.515509592311</v>
+        <v>-161.1779291169369</v>
       </c>
       <c r="M16" t="n">
-        <v>-269.5085375998169</v>
+        <v>-280.6632555276155</v>
       </c>
       <c r="N16" t="n">
-        <v>322.1685536575927</v>
+        <v>323.6513368391732</v>
       </c>
       <c r="O16" t="n">
         <v>333.0864405745596</v>
@@ -1263,10 +1263,10 @@
         <v>7551032.363539526</v>
       </c>
       <c r="E17" t="n">
-        <v>436439.0242877097</v>
+        <v>436351.2612529856</v>
       </c>
       <c r="F17" t="n">
-        <v>7550698.773923248</v>
+        <v>7550709.837378455</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1286,13 +1286,13 @@
         <v>-281.5523264734074</v>
       </c>
       <c r="L17" t="n">
-        <v>-399.8128065076889</v>
+        <v>-487.5758412317955</v>
       </c>
       <c r="M17" t="n">
-        <v>-333.5896162781864</v>
+        <v>-322.5261610709131</v>
       </c>
       <c r="N17" t="n">
-        <v>520.703670369417</v>
+        <v>584.5967204218936</v>
       </c>
       <c r="O17" t="n">
         <v>333.0864405745596</v>
@@ -1312,10 +1312,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E18" t="n">
-        <v>436892.4353234371</v>
+        <v>436814.4931414865</v>
       </c>
       <c r="F18" t="n">
-        <v>7551559.350311902</v>
+        <v>7551590.833511651</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1335,13 +1335,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L18" t="n">
-        <v>-105.1780715964851</v>
+        <v>-183.1202535470948</v>
       </c>
       <c r="M18" t="n">
-        <v>493.5822252016515</v>
+        <v>525.0654249498621</v>
       </c>
       <c r="N18" t="n">
-        <v>504.6640860808</v>
+        <v>556.0815837059625</v>
       </c>
       <c r="O18" t="n">
         <v>288.3670661137583</v>
@@ -1361,10 +1361,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E19" t="n">
-        <v>436791.7384493228</v>
+        <v>436771.9976883384</v>
       </c>
       <c r="F19" t="n">
-        <v>7551868.609065179</v>
+        <v>7551810.042726058</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1384,13 +1384,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L19" t="n">
-        <v>-205.8749457107624</v>
+        <v>-225.6157066951855</v>
       </c>
       <c r="M19" t="n">
-        <v>802.8409784780815</v>
+        <v>744.2746393568814</v>
       </c>
       <c r="N19" t="n">
-        <v>828.8173079726635</v>
+        <v>777.7192204757343</v>
       </c>
       <c r="O19" t="n">
         <v>322.1431880729987</v>
@@ -1410,10 +1410,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E20" t="n">
-        <v>436723.7829644403</v>
+        <v>436751.7696840169</v>
       </c>
       <c r="F20" t="n">
-        <v>7551707.225231034</v>
+        <v>7551700.716166964</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1433,13 +1433,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L20" t="n">
-        <v>-273.8304305932834</v>
+        <v>-245.8437110166415</v>
       </c>
       <c r="M20" t="n">
-        <v>641.4571443330497</v>
+        <v>634.9480802631006</v>
       </c>
       <c r="N20" t="n">
-        <v>697.4599434625718</v>
+        <v>680.8804556427147</v>
       </c>
       <c r="O20" t="n">
         <v>322.1431880729987</v>
@@ -1459,10 +1459,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E21" t="n">
-        <v>436763.0320739376</v>
+        <v>436789.2341941895</v>
       </c>
       <c r="F21" t="n">
-        <v>7551827.761564348</v>
+        <v>7551877.934136357</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1482,13 +1482,13 @@
         <v>-267.8692857990973</v>
       </c>
       <c r="L21" t="n">
-        <v>-234.5813210959313</v>
+        <v>-208.3792008440359</v>
       </c>
       <c r="M21" t="n">
-        <v>761.9934776471928</v>
+        <v>812.1660496564582</v>
       </c>
       <c r="N21" t="n">
-        <v>797.2844261516559</v>
+        <v>838.4721722030944</v>
       </c>
       <c r="O21" t="n">
         <v>322.1431880729987</v>
@@ -1508,10 +1508,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E22" t="n">
-        <v>436951.8300080438</v>
+        <v>436960.4638807319</v>
       </c>
       <c r="F22" t="n">
-        <v>7552192.757127548</v>
+        <v>7552089.580640175</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1531,13 +1531,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L22" t="n">
-        <v>-45.78338698972948</v>
+        <v>-37.14951430168003</v>
       </c>
       <c r="M22" t="n">
-        <v>1126.989040846936</v>
+        <v>1023.81255347468</v>
       </c>
       <c r="N22" t="n">
-        <v>1127.918621494188</v>
+        <v>1024.486325465203</v>
       </c>
       <c r="O22" t="n">
         <v>288.3670661137583</v>
@@ -1557,10 +1557,10 @@
         <v>7551065.768086701</v>
       </c>
       <c r="E23" t="n">
-        <v>436848.2170313092</v>
+        <v>436851.6025894426</v>
       </c>
       <c r="F23" t="n">
-        <v>7551883.548835756</v>
+        <v>7551700.403562642</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1580,13 +1580,13 @@
         <v>-287.5907922992483</v>
       </c>
       <c r="L23" t="n">
-        <v>-149.3963637243723</v>
+        <v>-146.0108055910096</v>
       </c>
       <c r="M23" t="n">
-        <v>817.780749055557</v>
+        <v>634.6354759410024</v>
       </c>
       <c r="N23" t="n">
-        <v>831.3149986737475</v>
+        <v>651.2152813564791</v>
       </c>
       <c r="O23" t="n">
         <v>288.3670661137583</v>
@@ -1606,10 +1606,10 @@
         <v>7576703.444898035</v>
       </c>
       <c r="E24" t="n">
-        <v>425032.4048997424</v>
+        <v>424865.0665985738</v>
       </c>
       <c r="F24" t="n">
-        <v>7576648.855521898</v>
+        <v>7576594.014179827</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1629,13 +1629,13 @@
         <v>292.8544160351157</v>
       </c>
       <c r="L24" t="n">
-        <v>406.8776580609847</v>
+        <v>239.5393568924046</v>
       </c>
       <c r="M24" t="n">
-        <v>-54.5893761375919</v>
+        <v>-109.4307182086632</v>
       </c>
       <c r="N24" t="n">
-        <v>410.5233594039236</v>
+        <v>263.3518285261954</v>
       </c>
       <c r="O24" t="n">
         <v>429.4856292461126</v>
@@ -1655,10 +1655,10 @@
         <v>7576703.444898035</v>
       </c>
       <c r="E25" t="n">
-        <v>424973.8317187509</v>
+        <v>424851.0992069935</v>
       </c>
       <c r="F25" t="n">
-        <v>7576838.649795787</v>
+        <v>7576707.875600774</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1678,13 +1678,13 @@
         <v>292.8544160351157</v>
       </c>
       <c r="L25" t="n">
-        <v>348.3044770694687</v>
+        <v>225.5719653120614</v>
       </c>
       <c r="M25" t="n">
-        <v>135.2048977520317</v>
+        <v>4.430702738463879</v>
       </c>
       <c r="N25" t="n">
-        <v>373.6259802566912</v>
+        <v>225.6154752261078</v>
       </c>
       <c r="O25" t="n">
         <v>429.4856292461126</v>
@@ -1704,10 +1704,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E26" t="n">
-        <v>425026.0362051311</v>
+        <v>425024.9150595759</v>
       </c>
       <c r="F26" t="n">
-        <v>7577360.29424675</v>
+        <v>7577332.852567996</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1727,13 +1727,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L26" t="n">
-        <v>524.3140047867782</v>
+        <v>523.1928592316108</v>
       </c>
       <c r="M26" t="n">
-        <v>579.0670890882611</v>
+        <v>551.6254103342071</v>
       </c>
       <c r="N26" t="n">
-        <v>781.1682720647977</v>
+        <v>760.2771608284247</v>
       </c>
       <c r="O26" t="n">
         <v>573.7435873526119</v>
@@ -1753,10 +1753,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E27" t="n">
-        <v>425013.0926617103</v>
+        <v>425073.9491483067</v>
       </c>
       <c r="F27" t="n">
-        <v>7577252.319371858</v>
+        <v>7577122.76207921</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1776,13 +1776,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L27" t="n">
-        <v>511.3704613659647</v>
+        <v>572.2269479624229</v>
       </c>
       <c r="M27" t="n">
-        <v>471.0922141959891</v>
+        <v>341.5349215483293</v>
       </c>
       <c r="N27" t="n">
-        <v>695.2895965234337</v>
+        <v>666.400617205156</v>
       </c>
       <c r="O27" t="n">
         <v>573.7435873526119</v>
@@ -1802,10 +1802,10 @@
         <v>7576781.227157662</v>
       </c>
       <c r="E28" t="n">
-        <v>425013.9074644066</v>
+        <v>425105.3023848628</v>
       </c>
       <c r="F28" t="n">
-        <v>7577296.307374576</v>
+        <v>7577195.441170677</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1825,13 +1825,13 @@
         <v>370.6366756614298</v>
       </c>
       <c r="L28" t="n">
-        <v>512.1852640622528</v>
+        <v>603.580184518476</v>
       </c>
       <c r="M28" t="n">
-        <v>515.0802169144154</v>
+        <v>414.2140130149201</v>
       </c>
       <c r="N28" t="n">
-        <v>726.3892720705069</v>
+        <v>732.0398129345712</v>
       </c>
       <c r="O28" t="n">
         <v>573.7435873526119</v>
@@ -1851,10 +1851,10 @@
         <v>7575707.151064353</v>
       </c>
       <c r="E29" t="n">
-        <v>423337.9548989423</v>
+        <v>423394.7650049096</v>
       </c>
       <c r="F29" t="n">
-        <v>7575899.021112674</v>
+        <v>7575899.324123494</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -1874,13 +1874,13 @@
         <v>-86.76123139681295</v>
       </c>
       <c r="L29" t="n">
-        <v>630.2636204552255</v>
+        <v>687.0737264225027</v>
       </c>
       <c r="M29" t="n">
-        <v>191.8700483208522</v>
+        <v>192.1730591412634</v>
       </c>
       <c r="N29" t="n">
-        <v>658.8219385478709</v>
+        <v>713.4429130629973</v>
       </c>
       <c r="O29" t="n">
         <v>455.3864024070871</v>
@@ -1900,10 +1900,10 @@
         <v>7575707.151064353</v>
       </c>
       <c r="E30" t="n">
-        <v>422697.043121886</v>
+        <v>422666.1602579372</v>
       </c>
       <c r="F30" t="n">
-        <v>7575675.0512137</v>
+        <v>7575653.846712976</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1923,13 +1923,13 @@
         <v>-214.3762193135917</v>
       </c>
       <c r="L30" t="n">
-        <v>-10.64815660106251</v>
+        <v>-41.53102054988267</v>
       </c>
       <c r="M30" t="n">
-        <v>-32.09985065273941</v>
+        <v>-53.30435137730092</v>
       </c>
       <c r="N30" t="n">
-        <v>33.81987065216136</v>
+        <v>67.57351214543714</v>
       </c>
       <c r="O30" t="n">
         <v>426.7390258093054</v>
@@ -1949,10 +1949,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E31" t="n">
-        <v>424705.1109949353</v>
+        <v>424683.842294849</v>
       </c>
       <c r="F31" t="n">
-        <v>7574743.13684244</v>
+        <v>7574716.566825974</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1972,13 +1972,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L31" t="n">
-        <v>-145.4315798872267</v>
+        <v>-166.7002799735637</v>
       </c>
       <c r="M31" t="n">
-        <v>-55.78081090841442</v>
+        <v>-82.35082737449557</v>
       </c>
       <c r="N31" t="n">
-        <v>155.7621369078348</v>
+        <v>185.9318211402462</v>
       </c>
       <c r="O31" t="n">
         <v>35.40923253378099</v>
@@ -1998,10 +1998,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E32" t="n">
-        <v>424709.0593820316</v>
+        <v>424653.873624004</v>
       </c>
       <c r="F32" t="n">
-        <v>7574714.069360294</v>
+        <v>7574698.719176511</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2021,13 +2021,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L32" t="n">
-        <v>-141.4831927909981</v>
+        <v>-196.6689508185955</v>
       </c>
       <c r="M32" t="n">
-        <v>-84.84829305391759</v>
+        <v>-100.1984768370166</v>
       </c>
       <c r="N32" t="n">
-        <v>164.9749274177692</v>
+        <v>220.7224750145424</v>
       </c>
       <c r="O32" t="n">
         <v>35.40923253378099</v>
@@ -2047,10 +2047,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E33" t="n">
-        <v>424718.6958551905</v>
+        <v>424679.1589457463</v>
       </c>
       <c r="F33" t="n">
-        <v>7574770.281772104</v>
+        <v>7574718.860562966</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2070,13 +2070,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L33" t="n">
-        <v>-131.8467196320998</v>
+        <v>-171.3836290762993</v>
       </c>
       <c r="M33" t="n">
-        <v>-28.63588124420494</v>
+        <v>-80.0570903820917</v>
       </c>
       <c r="N33" t="n">
-        <v>134.9206106285387</v>
+        <v>189.1599482866522</v>
       </c>
       <c r="O33" t="n">
         <v>35.40923253378099</v>
@@ -2096,10 +2096,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E34" t="n">
-        <v>424729.458164721</v>
+        <v>424679.6585723828</v>
       </c>
       <c r="F34" t="n">
-        <v>7574753.919895706</v>
+        <v>7574732.005828607</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2119,13 +2119,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L34" t="n">
-        <v>-121.0844101015246</v>
+        <v>-170.8840024397941</v>
       </c>
       <c r="M34" t="n">
-        <v>-44.9977576425299</v>
+        <v>-66.91182474140078</v>
       </c>
       <c r="N34" t="n">
-        <v>129.1752010352221</v>
+        <v>183.5171233974299</v>
       </c>
       <c r="O34" t="n">
         <v>35.40923253378099</v>
@@ -2145,10 +2145,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E35" t="n">
-        <v>424678.1627369876</v>
+        <v>424631.9101876891</v>
       </c>
       <c r="F35" t="n">
-        <v>7574817.62798834</v>
+        <v>7574775.096349698</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2168,13 +2168,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L35" t="n">
-        <v>-172.3798378349748</v>
+        <v>-218.6323871334316</v>
       </c>
       <c r="M35" t="n">
-        <v>18.71033499203622</v>
+        <v>-23.82130364980549</v>
       </c>
       <c r="N35" t="n">
-        <v>173.3922868167048</v>
+        <v>219.9262949518292</v>
       </c>
       <c r="O35" t="n">
         <v>35.40923253378099</v>
@@ -2194,10 +2194,10 @@
         <v>7574798.917653348</v>
       </c>
       <c r="E36" t="n">
-        <v>424707.0380497053</v>
+        <v>424685.576233096</v>
       </c>
       <c r="F36" t="n">
-        <v>7574818.416017846</v>
+        <v>7574781.304047384</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2217,13 +2217,13 @@
         <v>-20.88518965151161</v>
       </c>
       <c r="L36" t="n">
-        <v>-143.5045251172851</v>
+        <v>-164.9663417265983</v>
       </c>
       <c r="M36" t="n">
-        <v>19.49836449790746</v>
+        <v>-17.61360596399754</v>
       </c>
       <c r="N36" t="n">
-        <v>144.8231160665685</v>
+        <v>165.9039873472358</v>
       </c>
       <c r="O36" t="n">
         <v>35.40923253378099</v>
@@ -2243,10 +2243,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E37" t="n">
-        <v>431539.663953503</v>
+        <v>431545.5491653053</v>
       </c>
       <c r="F37" t="n">
-        <v>7573451.062549693</v>
+        <v>7573365.420216144</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2266,13 +2266,13 @@
         <v>519.6742706485093</v>
       </c>
       <c r="L37" t="n">
-        <v>-656.5791541700019</v>
+        <v>-650.6939423676813</v>
       </c>
       <c r="M37" t="n">
-        <v>404.3629880445078</v>
+        <v>318.7206544959918</v>
       </c>
       <c r="N37" t="n">
-        <v>771.1067447447713</v>
+        <v>724.5588052300163</v>
       </c>
       <c r="O37" t="n">
         <v>825.0477664764331</v>
@@ -2292,10 +2292,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E38" t="n">
-        <v>431687.1506538515</v>
+        <v>431726.1928026602</v>
       </c>
       <c r="F38" t="n">
-        <v>7572869.980279393</v>
+        <v>7572838.111986737</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2315,13 +2315,13 @@
         <v>354.6701769813274</v>
       </c>
       <c r="L38" t="n">
-        <v>-509.0924538215622</v>
+        <v>-470.0503050128464</v>
       </c>
       <c r="M38" t="n">
-        <v>-176.7192822545767</v>
+        <v>-208.5875749113038</v>
       </c>
       <c r="N38" t="n">
-        <v>538.8922260142859</v>
+        <v>514.2529199236974</v>
       </c>
       <c r="O38" t="n">
         <v>878.9593237422193</v>
@@ -2341,10 +2341,10 @@
         <v>7573046.699561648</v>
       </c>
       <c r="E39" t="n">
-        <v>432797.9109867667</v>
+        <v>432837.6205849205</v>
       </c>
       <c r="F39" t="n">
-        <v>7573352.545021781</v>
+        <v>7573283.677533366</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2364,13 +2364,13 @@
         <v>33.49977064784616</v>
       </c>
       <c r="L39" t="n">
-        <v>601.6678790936712</v>
+        <v>641.3774772475008</v>
       </c>
       <c r="M39" t="n">
-        <v>305.8454601326957</v>
+        <v>236.9779717177153</v>
       </c>
       <c r="N39" t="n">
-        <v>674.9412435292845</v>
+        <v>683.7569944065001</v>
       </c>
       <c r="O39" t="n">
         <v>655.957721059259</v>
@@ -2390,10 +2390,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E40" t="n">
-        <v>432233.516956392</v>
+        <v>432393.0265705837</v>
       </c>
       <c r="F40" t="n">
-        <v>7572831.709878641</v>
+        <v>7572811.244229484</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2413,13 +2413,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L40" t="n">
-        <v>5.356412619585171</v>
+        <v>164.8660268113017</v>
       </c>
       <c r="M40" t="n">
-        <v>-213.1338925780728</v>
+        <v>-233.5995417349041</v>
       </c>
       <c r="N40" t="n">
-        <v>213.2011897753686</v>
+        <v>285.9187868876441</v>
       </c>
       <c r="O40" t="n">
         <v>1256.392743841148</v>
@@ -2439,10 +2439,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E41" t="n">
-        <v>432305.0255534258</v>
+        <v>432388.5081691993</v>
       </c>
       <c r="F41" t="n">
-        <v>7572794.047274666</v>
+        <v>7572749.366117492</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2462,13 +2462,13 @@
         <v>508.9806992188096</v>
       </c>
       <c r="L41" t="n">
-        <v>76.865009653382</v>
+        <v>160.3476254269481</v>
       </c>
       <c r="M41" t="n">
-        <v>-250.7964965533465</v>
+        <v>-295.4776537269354</v>
       </c>
       <c r="N41" t="n">
-        <v>262.3110984927006</v>
+        <v>336.1821007014436</v>
       </c>
       <c r="O41" t="n">
         <v>1256.392743841148</v>
@@ -2488,10 +2488,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E42" t="n">
-        <v>432018.3204045839</v>
+        <v>432000.6607836148</v>
       </c>
       <c r="F42" t="n">
-        <v>7572696.894322451</v>
+        <v>7572662.666533899</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2511,13 +2511,13 @@
         <v>513.3995897192508</v>
       </c>
       <c r="L42" t="n">
-        <v>-209.8401391884545</v>
+        <v>-227.4997601576033</v>
       </c>
       <c r="M42" t="n">
-        <v>-347.9494487680495</v>
+        <v>-382.1772373206913</v>
       </c>
       <c r="N42" t="n">
-        <v>406.3270885784253</v>
+        <v>444.7646361817035</v>
       </c>
       <c r="O42" t="n">
         <v>1045.448340050612</v>
@@ -2537,10 +2537,10 @@
         <v>7573044.843771219</v>
       </c>
       <c r="E43" t="n">
-        <v>431838.3153002886</v>
+        <v>431818.1520850323</v>
       </c>
       <c r="F43" t="n">
-        <v>7573036.204791807</v>
+        <v>7573027.081391396</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -2560,13 +2560,13 @@
         <v>273.8733717191499</v>
       </c>
       <c r="L43" t="n">
-        <v>-389.8452434837818</v>
+        <v>-410.0084587400779</v>
       </c>
       <c r="M43" t="n">
-        <v>-8.638979412615299</v>
+        <v>-17.76237982325256</v>
       </c>
       <c r="N43" t="n">
-        <v>389.9409517250281</v>
+        <v>410.3930291505932</v>
       </c>
       <c r="O43" t="n">
         <v>960.9726123950555</v>
@@ -2586,10 +2586,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E44" t="n">
-        <v>431760.0772006351</v>
+        <v>431838.7085307427</v>
       </c>
       <c r="F44" t="n">
-        <v>7572937.866441538</v>
+        <v>7572915.501838086</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -2609,13 +2609,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L44" t="n">
-        <v>-424.1560805627378</v>
+        <v>-345.5247504551662</v>
       </c>
       <c r="M44" t="n">
-        <v>-67.82542889844626</v>
+        <v>-90.19003234989941</v>
       </c>
       <c r="N44" t="n">
-        <v>429.5447234964037</v>
+        <v>357.1016593526006</v>
       </c>
       <c r="O44" t="n">
         <v>908.0533939333675</v>
@@ -2635,10 +2635,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E45" t="n">
-        <v>431667.4189175869</v>
+        <v>431700.7129168535</v>
       </c>
       <c r="F45" t="n">
-        <v>7572858.251806465</v>
+        <v>7572851.779752829</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2658,13 +2658,13 @@
         <v>313.662485769329</v>
       </c>
       <c r="L45" t="n">
-        <v>-516.8143636109889</v>
+        <v>-483.5203643442946</v>
       </c>
       <c r="M45" t="n">
-        <v>-147.4400639710948</v>
+        <v>-153.9121176069602</v>
       </c>
       <c r="N45" t="n">
-        <v>537.4343298473145</v>
+        <v>507.4257410517308</v>
       </c>
       <c r="O45" t="n">
         <v>852.0503114849387</v>
@@ -2684,10 +2684,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E46" t="n">
-        <v>432010.746015984</v>
+        <v>432064.7168504484</v>
       </c>
       <c r="F46" t="n">
-        <v>7573005.104934812</v>
+        <v>7573020.821464791</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2707,13 +2707,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L46" t="n">
-        <v>-173.4872652138001</v>
+        <v>-119.5164307494415</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.5869356244802475</v>
+        <v>15.12959435489029</v>
       </c>
       <c r="N46" t="n">
-        <v>173.4882580602812</v>
+        <v>120.4702529441587</v>
       </c>
       <c r="O46" t="n">
         <v>908.0533939333675</v>
@@ -2733,10 +2733,10 @@
         <v>7573005.691870436</v>
       </c>
       <c r="E47" t="n">
-        <v>431763.9568377817</v>
+        <v>431734.3824724294</v>
       </c>
       <c r="F47" t="n">
-        <v>7572868.136640457</v>
+        <v>7572869.244298133</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2756,13 +2756,13 @@
         <v>234.7214709359687</v>
       </c>
       <c r="L47" t="n">
-        <v>-420.2764434161363</v>
+        <v>-449.8508087684168</v>
       </c>
       <c r="M47" t="n">
-        <v>-137.5552299795672</v>
+        <v>-136.4475723030046</v>
       </c>
       <c r="N47" t="n">
-        <v>442.2145748222784</v>
+        <v>470.0890236295486</v>
       </c>
       <c r="O47" t="n">
         <v>908.0533939333675</v>
@@ -2782,10 +2782,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E48" t="n">
-        <v>424701.7769689082</v>
+        <v>424734.1031303748</v>
       </c>
       <c r="F48" t="n">
-        <v>7575809.787062581</v>
+        <v>7575811.327621902</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2805,13 +2805,13 @@
         <v>-108.3453925880603</v>
       </c>
       <c r="L48" t="n">
-        <v>540.1263016105513</v>
+        <v>572.4524630771484</v>
       </c>
       <c r="M48" t="n">
-        <v>425.5913571687415</v>
+        <v>427.1319164903834</v>
       </c>
       <c r="N48" t="n">
-        <v>687.6513833245911</v>
+        <v>714.2433034812731</v>
       </c>
       <c r="O48" t="n">
         <v>226.6139816280848</v>
@@ -2831,10 +2831,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E49" t="n">
-        <v>424634.9772532276</v>
+        <v>424716.4306306192</v>
       </c>
       <c r="F49" t="n">
-        <v>7576016.852671277</v>
+        <v>7575985.784589608</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2854,13 +2854,13 @@
         <v>-292.6081759214091</v>
       </c>
       <c r="L49" t="n">
-        <v>473.326585929899</v>
+        <v>554.7799633215182</v>
       </c>
       <c r="M49" t="n">
-        <v>632.6569658648223</v>
+        <v>601.5888841962442</v>
       </c>
       <c r="N49" t="n">
-        <v>790.1220750019182</v>
+        <v>818.345888540724</v>
       </c>
       <c r="O49" t="n">
         <v>555.8419657876722</v>
@@ -2880,10 +2880,10 @@
         <v>7575384.195705412</v>
       </c>
       <c r="E50" t="n">
-        <v>424609.3935574724</v>
+        <v>424634.2310586669</v>
       </c>
       <c r="F50" t="n">
-        <v>7576015.091505542</v>
+        <v>7576014.688616448</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -2903,13 +2903,13 @@
         <v>-292.6081759214091</v>
       </c>
       <c r="L50" t="n">
-        <v>447.7428901747917</v>
+        <v>472.5803913692944</v>
       </c>
       <c r="M50" t="n">
-        <v>630.8958001304418</v>
+        <v>630.4929110361263</v>
       </c>
       <c r="N50" t="n">
-        <v>773.6298897562748</v>
+        <v>787.9425976386631</v>
       </c>
       <c r="O50" t="n">
         <v>555.8419657876722</v>
@@ -2929,10 +2929,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E51" t="n">
-        <v>424532.8715673492</v>
+        <v>424618.5770174176</v>
       </c>
       <c r="F51" t="n">
-        <v>7575870.702213278</v>
+        <v>7575819.634659236</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2952,13 +2952,13 @@
         <v>329.1051555522718</v>
       </c>
       <c r="L51" t="n">
-        <v>26.78044051141478</v>
+        <v>112.4858905798756</v>
       </c>
       <c r="M51" t="n">
-        <v>-123.1801032740623</v>
+        <v>-174.2476573158056</v>
       </c>
       <c r="N51" t="n">
-        <v>126.0576448954766</v>
+        <v>207.4013540447461</v>
       </c>
       <c r="O51" t="n">
         <v>1188.730698850027</v>
@@ -2978,10 +2978,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E52" t="n">
-        <v>424497.8536809971</v>
+        <v>424609.0869276435</v>
       </c>
       <c r="F52" t="n">
-        <v>7575949.583111104</v>
+        <v>7575917.389035337</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3001,13 +3001,13 @@
         <v>329.1051555522718</v>
       </c>
       <c r="L52" t="n">
-        <v>-8.237445840670262</v>
+        <v>102.9958008057438</v>
       </c>
       <c r="M52" t="n">
-        <v>-44.29920544847846</v>
+        <v>-76.49328121542931</v>
       </c>
       <c r="N52" t="n">
-        <v>45.05857429329605</v>
+        <v>128.2940257951211</v>
       </c>
       <c r="O52" t="n">
         <v>1188.730698850027</v>
@@ -3027,10 +3027,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E53" t="n">
-        <v>424488.5503299661</v>
+        <v>424533.3129869106</v>
       </c>
       <c r="F53" t="n">
-        <v>7576226.362017272</v>
+        <v>7576208.993531175</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -3050,13 +3050,13 @@
         <v>-111.879338647984</v>
       </c>
       <c r="L53" t="n">
-        <v>-17.54079687164631</v>
+        <v>27.22186007286655</v>
       </c>
       <c r="M53" t="n">
-        <v>232.4797007199377</v>
+        <v>215.1112146228552</v>
       </c>
       <c r="N53" t="n">
-        <v>233.1404958425802</v>
+        <v>216.8268072041527</v>
       </c>
       <c r="O53" t="n">
         <v>822.2964947218435</v>
@@ -3076,10 +3076,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E54" t="n">
-        <v>424764.7401349123</v>
+        <v>424810.0148716563</v>
       </c>
       <c r="F54" t="n">
-        <v>7575960.249791768</v>
+        <v>7575924.793263878</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -3099,13 +3099,13 @@
         <v>216.2474101519212</v>
       </c>
       <c r="L54" t="n">
-        <v>258.6490080744843</v>
+        <v>303.9237448185449</v>
       </c>
       <c r="M54" t="n">
-        <v>-33.63252478372306</v>
+        <v>-69.08905267436057</v>
       </c>
       <c r="N54" t="n">
-        <v>260.8264865791862</v>
+        <v>311.677621692621</v>
       </c>
       <c r="O54" t="n">
         <v>418.3284046355066</v>
@@ -3125,10 +3125,10 @@
         <v>7575993.882316552</v>
       </c>
       <c r="E55" t="n">
-        <v>424553.6633712022</v>
+        <v>424633.2439316661</v>
       </c>
       <c r="F55" t="n">
-        <v>7576058.517777327</v>
+        <v>7576024.48485119</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
@@ -3148,13 +3148,13 @@
         <v>153.3048991076648</v>
       </c>
       <c r="L55" t="n">
-        <v>47.57224436447723</v>
+        <v>127.1528048283653</v>
       </c>
       <c r="M55" t="n">
-        <v>64.63546077534556</v>
+        <v>30.60253463778645</v>
       </c>
       <c r="N55" t="n">
-        <v>80.2549763162059</v>
+        <v>130.7836033376405</v>
       </c>
       <c r="O55" t="n">
         <v>809.4826938708336</v>
@@ -3174,10 +3174,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E56" t="n">
-        <v>424749.3887988791</v>
+        <v>424843.0676951328</v>
       </c>
       <c r="F56" t="n">
-        <v>7576030.949306292</v>
+        <v>7576011.0860206</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -3197,13 +3197,13 @@
         <v>198.7108834970277</v>
       </c>
       <c r="L56" t="n">
-        <v>161.7920283966232</v>
+        <v>255.4709246503189</v>
       </c>
       <c r="M56" t="n">
-        <v>17.75036704540253</v>
+        <v>-2.112918647006154</v>
       </c>
       <c r="N56" t="n">
-        <v>162.7628212551633</v>
+        <v>255.4796621394701</v>
       </c>
       <c r="O56" t="n">
         <v>392.7611216976345</v>
@@ -3223,10 +3223,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E57" t="n">
-        <v>424720.6084643957</v>
+        <v>424801.667126713</v>
       </c>
       <c r="F57" t="n">
-        <v>7576022.968325225</v>
+        <v>7575991.45997825</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3246,13 +3246,13 @@
         <v>177.9110966470093</v>
       </c>
       <c r="L57" t="n">
-        <v>133.0116939132567</v>
+        <v>214.0703562304843</v>
       </c>
       <c r="M57" t="n">
-        <v>9.769385977648199</v>
+        <v>-21.7389609972015</v>
       </c>
       <c r="N57" t="n">
-        <v>133.3699802056451</v>
+        <v>215.1713267186971</v>
       </c>
       <c r="O57" t="n">
         <v>550.3509526026252</v>
@@ -3272,10 +3272,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E58" t="n">
-        <v>424800.4231067718</v>
+        <v>424952.5226842681</v>
       </c>
       <c r="F58" t="n">
-        <v>7575983.889225461</v>
+        <v>7575970.566599345</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3295,13 +3295,13 @@
         <v>198.7108834970277</v>
       </c>
       <c r="L58" t="n">
-        <v>212.8263362892903</v>
+        <v>364.9259137855843</v>
       </c>
       <c r="M58" t="n">
-        <v>-29.30971378646791</v>
+        <v>-42.63233990222216</v>
       </c>
       <c r="N58" t="n">
-        <v>214.8350733482938</v>
+        <v>367.4077284949002</v>
       </c>
       <c r="O58" t="n">
         <v>392.7611216976345</v>
@@ -3321,10 +3321,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E59" t="n">
-        <v>424778.5376523259</v>
+        <v>424886.9158372446</v>
       </c>
       <c r="F59" t="n">
-        <v>7576178.822509873</v>
+        <v>7576112.381150878</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3344,13 +3344,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L59" t="n">
-        <v>190.9408818434458</v>
+        <v>299.3190667621093</v>
       </c>
       <c r="M59" t="n">
-        <v>165.6235706256703</v>
+        <v>99.18221163097769</v>
       </c>
       <c r="N59" t="n">
-        <v>252.7638967612842</v>
+        <v>315.3236667796315</v>
       </c>
       <c r="O59" t="n">
         <v>476.5339934397911</v>
@@ -3370,10 +3370,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E60" t="n">
-        <v>424774.4241003024</v>
+        <v>424887.8915498122</v>
       </c>
       <c r="F60" t="n">
-        <v>7575850.292458085</v>
+        <v>7575827.402536685</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3393,13 +3393,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L60" t="n">
-        <v>186.8273298199056</v>
+        <v>300.2947793296771</v>
       </c>
       <c r="M60" t="n">
-        <v>-162.9064811617136</v>
+        <v>-185.7964025624096</v>
       </c>
       <c r="N60" t="n">
-        <v>247.8769306977306</v>
+        <v>353.1249887756351</v>
       </c>
       <c r="O60" t="n">
         <v>476.5339934397911</v>
@@ -3419,10 +3419,10 @@
         <v>7576013.198939247</v>
       </c>
       <c r="E61" t="n">
-        <v>424784.5445124177</v>
+        <v>424801.908532226</v>
       </c>
       <c r="F61" t="n">
-        <v>7575871.106369477</v>
+        <v>7575846.511049778</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -3442,13 +3442,13 @@
         <v>324.0541439969093</v>
       </c>
       <c r="L61" t="n">
-        <v>196.9477419352625</v>
+        <v>214.3117617435055</v>
       </c>
       <c r="M61" t="n">
-        <v>-142.0925697702914</v>
+        <v>-166.6878894688562</v>
       </c>
       <c r="N61" t="n">
-        <v>242.8553302633564</v>
+        <v>271.5039294691454</v>
       </c>
       <c r="O61" t="n">
         <v>476.5339934397911</v>
@@ -3468,10 +3468,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E62" t="n">
-        <v>427307.4402535746</v>
+        <v>427293.3473765713</v>
       </c>
       <c r="F62" t="n">
-        <v>7565766.578917679</v>
+        <v>7565700.177425031</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3491,13 +3491,13 @@
         <v>-130.0167417659735</v>
       </c>
       <c r="L62" t="n">
-        <v>-210.9381859542336</v>
+        <v>-225.0310629575397</v>
       </c>
       <c r="M62" t="n">
-        <v>384.1425127787516</v>
+        <v>317.7410201299936</v>
       </c>
       <c r="N62" t="n">
-        <v>438.2469491253033</v>
+        <v>389.3563087572219</v>
       </c>
       <c r="O62" t="n">
         <v>193.1288251706171</v>
@@ -3517,10 +3517,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E63" t="n">
-        <v>427878.1088784731</v>
+        <v>427927.5467266613</v>
       </c>
       <c r="F63" t="n">
-        <v>7565199.814782692</v>
+        <v>7565254.308859345</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3540,13 +3540,13 @@
         <v>-62.16662909928709</v>
       </c>
       <c r="L63" t="n">
-        <v>359.7304389442434</v>
+        <v>409.1682871324592</v>
       </c>
       <c r="M63" t="n">
-        <v>-182.6216222085059</v>
+        <v>-128.1275455560535</v>
       </c>
       <c r="N63" t="n">
-        <v>403.4310915151239</v>
+        <v>428.7602536676285</v>
       </c>
       <c r="O63" t="n">
         <v>99.24455936577476</v>
@@ -3566,10 +3566,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E64" t="n">
-        <v>428147.997871034</v>
+        <v>428495.638242065</v>
       </c>
       <c r="F64" t="n">
-        <v>7565577.710580845</v>
+        <v>7565506.757137885</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>204.8038629004732</v>
       </c>
       <c r="L64" t="n">
-        <v>629.6194315052126</v>
+        <v>977.2598025361658</v>
       </c>
       <c r="M64" t="n">
-        <v>195.2741759447381</v>
+        <v>124.3207329846919</v>
       </c>
       <c r="N64" t="n">
-        <v>659.2060621079297</v>
+        <v>985.1357095866929</v>
       </c>
       <c r="O64" t="n">
         <v>304.3215034464807</v>
@@ -3615,10 +3615,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E65" t="n">
-        <v>427445.2534464644</v>
+        <v>427390.5201396017</v>
       </c>
       <c r="F65" t="n">
-        <v>7565575.42820946</v>
+        <v>7565567.350500884</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3638,13 +3638,13 @@
         <v>-46.31159059936181</v>
       </c>
       <c r="L65" t="n">
-        <v>-73.12499306438258</v>
+        <v>-127.8582999270875</v>
       </c>
       <c r="M65" t="n">
-        <v>192.9918045597151</v>
+        <v>184.9140959829092</v>
       </c>
       <c r="N65" t="n">
-        <v>206.3809614229987</v>
+        <v>224.8131841183288</v>
       </c>
       <c r="O65" t="n">
         <v>68.76625058727349</v>
@@ -3664,10 +3664,10 @@
         <v>7565382.436404901</v>
       </c>
       <c r="E66" t="n">
-        <v>427400.153936127</v>
+        <v>427441.6240851131</v>
       </c>
       <c r="F66" t="n">
-        <v>7565239.192949346</v>
+        <v>7565198.992522667</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3687,13 +3687,13 @@
         <v>-46.31159059936181</v>
       </c>
       <c r="L66" t="n">
-        <v>-118.2245034017833</v>
+        <v>-76.75435441569425</v>
       </c>
       <c r="M66" t="n">
-        <v>-143.2434555543587</v>
+        <v>-183.4438822334632</v>
       </c>
       <c r="N66" t="n">
-        <v>185.7302365360896</v>
+        <v>198.8539384841415</v>
       </c>
       <c r="O66" t="n">
         <v>68.76625058727349</v>
@@ -3713,10 +3713,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E67" t="n">
-        <v>427158.2654026232</v>
+        <v>427177.6715687686</v>
       </c>
       <c r="F67" t="n">
-        <v>7565585.187870421</v>
+        <v>7565532.903043804</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3736,13 +3736,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L67" t="n">
-        <v>-145.8575415826053</v>
+        <v>-126.4513754372601</v>
       </c>
       <c r="M67" t="n">
-        <v>118.613206749782</v>
+        <v>66.32838013302535</v>
       </c>
       <c r="N67" t="n">
-        <v>187.9987107721432</v>
+        <v>142.7914715977324</v>
       </c>
       <c r="O67" t="n">
         <v>73.38924382563867</v>
@@ -3762,10 +3762,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E68" t="n">
-        <v>427206.614874162</v>
+        <v>427299.5017473423</v>
       </c>
       <c r="F68" t="n">
-        <v>7565484.422039315</v>
+        <v>7565527.636299199</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3785,13 +3785,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L68" t="n">
-        <v>-97.50807004381204</v>
+        <v>-4.621196863532532</v>
       </c>
       <c r="M68" t="n">
-        <v>17.84737564437091</v>
+        <v>61.06163552869111</v>
       </c>
       <c r="N68" t="n">
-        <v>99.12796044033307</v>
+        <v>61.23625391784049</v>
       </c>
       <c r="O68" t="n">
         <v>73.38924382563867</v>
@@ -3811,10 +3811,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E69" t="n">
-        <v>427370.0658452174</v>
+        <v>427335.5634395948</v>
       </c>
       <c r="F69" t="n">
-        <v>7565406.506468371</v>
+        <v>7565386.043485413</v>
       </c>
       <c r="G69" t="n">
         <v>4</v>
@@ -3834,13 +3834,13 @@
         <v>37.82666817074642</v>
       </c>
       <c r="L69" t="n">
-        <v>65.94290101161459</v>
+        <v>31.44049538893159</v>
       </c>
       <c r="M69" t="n">
-        <v>-60.06819530017674</v>
+        <v>-80.53117825742811</v>
       </c>
       <c r="N69" t="n">
-        <v>89.20008004731709</v>
+        <v>86.45100012047918</v>
       </c>
       <c r="O69" t="n">
         <v>167.7427807882272</v>
@@ -3860,10 +3860,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E70" t="n">
-        <v>427348.5904597875</v>
+        <v>427368.5910614773</v>
       </c>
       <c r="F70" t="n">
-        <v>7565432.769144004</v>
+        <v>7565434.038269799</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3883,13 +3883,13 @@
         <v>37.82666817074642</v>
       </c>
       <c r="L70" t="n">
-        <v>44.4675155816949</v>
+        <v>64.46811727143358</v>
       </c>
       <c r="M70" t="n">
-        <v>-33.80551966652274</v>
+        <v>-32.53639387153089</v>
       </c>
       <c r="N70" t="n">
-        <v>55.8585096644364</v>
+        <v>72.21326104453881</v>
       </c>
       <c r="O70" t="n">
         <v>167.7427807882272</v>
@@ -3909,10 +3909,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E71" t="n">
-        <v>427282.2836544563</v>
+        <v>427274.4134186369</v>
       </c>
       <c r="F71" t="n">
-        <v>7565728.699428231</v>
+        <v>7565664.302400826</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -3932,13 +3932,13 @@
         <v>-45.87848299586525</v>
       </c>
       <c r="L71" t="n">
-        <v>-21.83928974950686</v>
+        <v>-29.70952556893462</v>
       </c>
       <c r="M71" t="n">
-        <v>262.1247645597905</v>
+        <v>197.7277371557429</v>
       </c>
       <c r="N71" t="n">
-        <v>263.0329765871354</v>
+        <v>199.9472779266118</v>
       </c>
       <c r="O71" t="n">
         <v>84.9084633962147</v>
@@ -3958,10 +3958,10 @@
         <v>7565466.574663671</v>
       </c>
       <c r="E72" t="n">
-        <v>427157.1836163127</v>
+        <v>427152.4178299927</v>
       </c>
       <c r="F72" t="n">
-        <v>7565824.166861918</v>
+        <v>7565765.225165002</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3981,13 +3981,13 @@
         <v>11.21015017060563</v>
       </c>
       <c r="L72" t="n">
-        <v>-146.9393278930802</v>
+        <v>-151.7051142131095</v>
       </c>
       <c r="M72" t="n">
-        <v>357.59219824709</v>
+        <v>298.6505013313144</v>
       </c>
       <c r="N72" t="n">
-        <v>386.6048969281898</v>
+        <v>334.9724818904652</v>
       </c>
       <c r="O72" t="n">
         <v>73.38924382563867</v>
@@ -4007,10 +4007,10 @@
         <v>7565487.937967502</v>
       </c>
       <c r="E73" t="n">
-        <v>427176.2756919744</v>
+        <v>427173.459567281</v>
       </c>
       <c r="F73" t="n">
-        <v>7565422.305061268</v>
+        <v>7565427.279953273</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4030,13 +4030,13 @@
         <v>32.57345400145277</v>
       </c>
       <c r="L73" t="n">
-        <v>-175.7455297409906</v>
+        <v>-178.5616544344812</v>
       </c>
       <c r="M73" t="n">
-        <v>-65.63290623389184</v>
+        <v>-60.65801422856748</v>
       </c>
       <c r="N73" t="n">
-        <v>187.6010916936473</v>
+        <v>188.5832949243706</v>
       </c>
       <c r="O73" t="n">
         <v>124.7538495061759</v>
@@ -4056,10 +4056,10 @@
         <v>7565487.937967502</v>
       </c>
       <c r="E74" t="n">
-        <v>427027.1013144569</v>
+        <v>426935.0730349856</v>
       </c>
       <c r="F74" t="n">
-        <v>7565037.733079</v>
+        <v>7565068.034290668</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4079,13 +4079,13 @@
         <v>-160.2154044983909</v>
       </c>
       <c r="L74" t="n">
-        <v>-324.9199072585325</v>
+        <v>-416.9481867298018</v>
       </c>
       <c r="M74" t="n">
-        <v>-450.2048885012046</v>
+        <v>-419.9036768339574</v>
       </c>
       <c r="N74" t="n">
-        <v>555.2093188728692</v>
+        <v>591.747317895017</v>
       </c>
       <c r="O74" t="n">
         <v>192.8530163463931</v>
@@ -4105,10 +4105,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E75" t="n">
-        <v>427155.3390793683</v>
+        <v>427219.2715531199</v>
       </c>
       <c r="F75" t="n">
-        <v>7566347.852594848</v>
+        <v>7566366.608659909</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4128,13 +4128,13 @@
         <v>168.3916467772797</v>
       </c>
       <c r="L75" t="n">
-        <v>-132.6394397119875</v>
+        <v>-68.7069659603294</v>
       </c>
       <c r="M75" t="n">
-        <v>916.8852930702269</v>
+        <v>935.6413581315428</v>
       </c>
       <c r="N75" t="n">
-        <v>926.4296312271028</v>
+        <v>938.1606462742465</v>
       </c>
       <c r="O75" t="n">
         <v>182.1562084009817</v>
@@ -4154,10 +4154,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E76" t="n">
-        <v>427246.0133388051</v>
+        <v>427237.0226806014</v>
       </c>
       <c r="F76" t="n">
-        <v>7565948.230277224</v>
+        <v>7565884.241130791</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4177,13 +4177,13 @@
         <v>168.3916467772797</v>
       </c>
       <c r="L76" t="n">
-        <v>-41.96518027520506</v>
+        <v>-50.95583847886883</v>
       </c>
       <c r="M76" t="n">
-        <v>517.2629754468799</v>
+        <v>453.2738290131092</v>
       </c>
       <c r="N76" t="n">
-        <v>518.9624862393138</v>
+        <v>456.1289966043487</v>
       </c>
       <c r="O76" t="n">
         <v>182.1562084009817</v>
@@ -4203,10 +4203,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E77" t="n">
-        <v>427049.8496888388</v>
+        <v>427040.5495621287</v>
       </c>
       <c r="F77" t="n">
-        <v>7565511.379868302</v>
+        <v>7565475.859436298</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4226,13 +4226,13 @@
         <v>-24.39721172256395</v>
       </c>
       <c r="L77" t="n">
-        <v>-238.1288302414468</v>
+        <v>-247.4289569515386</v>
       </c>
       <c r="M77" t="n">
-        <v>80.4125665249303</v>
+        <v>44.89213452022523</v>
       </c>
       <c r="N77" t="n">
-        <v>251.3394530257559</v>
+        <v>251.4684721389708</v>
       </c>
       <c r="O77" t="n">
         <v>61.43560594337487</v>
@@ -4252,10 +4252,10 @@
         <v>7565430.967301778</v>
       </c>
       <c r="E78" t="n">
-        <v>427138.8228046733</v>
+        <v>427138.3755217516</v>
       </c>
       <c r="F78" t="n">
-        <v>7565353.868176349</v>
+        <v>7565342.318391319</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4275,13 +4275,13 @@
         <v>-24.39721172256395</v>
       </c>
       <c r="L78" t="n">
-        <v>-149.1557144069811</v>
+        <v>-149.6029973286786</v>
       </c>
       <c r="M78" t="n">
-        <v>-77.09912542905658</v>
+        <v>-88.64891045819968</v>
       </c>
       <c r="N78" t="n">
-        <v>167.9038483245167</v>
+        <v>173.8956185047528</v>
       </c>
       <c r="O78" t="n">
         <v>61.43560594337487</v>
@@ -4301,10 +4301,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E79" t="n">
-        <v>427298.8853943602</v>
+        <v>427336.0206463381</v>
       </c>
       <c r="F79" t="n">
-        <v>7565143.545375234</v>
+        <v>7565129.511896365</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -4324,13 +4324,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L79" t="n">
-        <v>159.3320833014441</v>
+        <v>196.4673352792743</v>
       </c>
       <c r="M79" t="n">
-        <v>-18.6347211971879</v>
+        <v>-32.66820006538182</v>
       </c>
       <c r="N79" t="n">
-        <v>160.4180962462628</v>
+        <v>199.164818999869</v>
       </c>
       <c r="O79" t="n">
         <v>422.6547333935085</v>
@@ -4350,10 +4350,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E80" t="n">
-        <v>427315.85733174</v>
+        <v>427413.4609357386</v>
       </c>
       <c r="F80" t="n">
-        <v>7565135.681479409</v>
+        <v>7565141.66967226</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4373,13 +4373,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L80" t="n">
-        <v>176.3040206811856</v>
+        <v>273.9076246797922</v>
       </c>
       <c r="M80" t="n">
-        <v>-26.49861702136695</v>
+        <v>-20.51042417064309</v>
       </c>
       <c r="N80" t="n">
-        <v>178.2842797680071</v>
+        <v>274.6744697954027</v>
       </c>
       <c r="O80" t="n">
         <v>422.6547333935085</v>
@@ -4399,10 +4399,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E81" t="n">
-        <v>427245.5280268348</v>
+        <v>427274.7765933542</v>
       </c>
       <c r="F81" t="n">
-        <v>7565147.233378914</v>
+        <v>7565117.91256558</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -4422,13 +4422,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L81" t="n">
-        <v>105.974715776043</v>
+        <v>135.2232822954538</v>
       </c>
       <c r="M81" t="n">
-        <v>-14.94671751651913</v>
+        <v>-44.26753085106611</v>
       </c>
       <c r="N81" t="n">
-        <v>107.0235709941119</v>
+        <v>142.2847509833927</v>
       </c>
       <c r="O81" t="n">
         <v>422.6547333935085</v>
@@ -4448,10 +4448,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E82" t="n">
-        <v>427301.4797555426</v>
+        <v>427359.9759191318</v>
       </c>
       <c r="F82" t="n">
-        <v>7565229.115708908</v>
+        <v>7565221.812404007</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -4471,13 +4471,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L82" t="n">
-        <v>161.9264444838627</v>
+        <v>220.4226080730441</v>
       </c>
       <c r="M82" t="n">
-        <v>66.93561247736216</v>
+        <v>59.63230757601559</v>
       </c>
       <c r="N82" t="n">
-        <v>175.2157231555007</v>
+        <v>228.3465310806436</v>
       </c>
       <c r="O82" t="n">
         <v>422.6547333935085</v>
@@ -4497,10 +4497,10 @@
         <v>7565162.180096431</v>
       </c>
       <c r="E83" t="n">
-        <v>427309.1392295317</v>
+        <v>427328.6601870923</v>
       </c>
       <c r="F83" t="n">
-        <v>7565103.961124854</v>
+        <v>7565100.394876418</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -4520,13 +4520,13 @@
         <v>-266.5678990692832</v>
       </c>
       <c r="L83" t="n">
-        <v>169.5859184729634</v>
+        <v>189.1068760335329</v>
       </c>
       <c r="M83" t="n">
-        <v>-58.21897157654166</v>
+        <v>-61.78522001300007</v>
       </c>
       <c r="N83" t="n">
-        <v>179.3009548099194</v>
+        <v>198.9442735421576</v>
       </c>
       <c r="O83" t="n">
         <v>422.6547333935085</v>
@@ -4546,10 +4546,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E84" t="n">
-        <v>421098.5522545313</v>
+        <v>421121.846220283</v>
       </c>
       <c r="F84" t="n">
-        <v>7573953.599461303</v>
+        <v>7573965.903382543</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4569,13 +4569,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L84" t="n">
-        <v>-241.1167028726777</v>
+        <v>-217.8227371210232</v>
       </c>
       <c r="M84" t="n">
-        <v>-24.6307316897437</v>
+        <v>-12.3268104493618</v>
       </c>
       <c r="N84" t="n">
-        <v>242.3714862515046</v>
+        <v>218.1712516871755</v>
       </c>
       <c r="O84" t="n">
         <v>210.1155508096735</v>
@@ -4595,10 +4595,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E85" t="n">
-        <v>421234.0709264544</v>
+        <v>421304.0354200081</v>
       </c>
       <c r="F85" t="n">
-        <v>7574035.999036406</v>
+        <v>7574066.907520656</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4618,13 +4618,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L85" t="n">
-        <v>-105.5980309495935</v>
+        <v>-35.63353739585727</v>
       </c>
       <c r="M85" t="n">
-        <v>57.76884341333061</v>
+        <v>88.67732766270638</v>
       </c>
       <c r="N85" t="n">
-        <v>120.3668700670796</v>
+        <v>95.56891455248902</v>
       </c>
       <c r="O85" t="n">
         <v>210.1155508096735</v>
@@ -4644,10 +4644,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E86" t="n">
-        <v>421357.9805479345</v>
+        <v>421259.8587064521</v>
       </c>
       <c r="F86" t="n">
-        <v>7574183.03254174</v>
+        <v>7574254.775506118</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4667,13 +4667,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L86" t="n">
-        <v>18.31159053050214</v>
+        <v>-79.81025095190853</v>
       </c>
       <c r="M86" t="n">
-        <v>204.8023487469181</v>
+        <v>276.5453131254762</v>
       </c>
       <c r="N86" t="n">
-        <v>205.6193483114151</v>
+        <v>287.8315242788293</v>
       </c>
       <c r="O86" t="n">
         <v>210.1155508096735</v>
@@ -4693,10 +4693,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E87" t="n">
-        <v>421208.142469117</v>
+        <v>421156.0719464199</v>
       </c>
       <c r="F87" t="n">
-        <v>7574051.704024201</v>
+        <v>7574135.970195176</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4716,13 +4716,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L87" t="n">
-        <v>-131.5264882869669</v>
+        <v>-183.5970109840855</v>
       </c>
       <c r="M87" t="n">
-        <v>73.47383120842278</v>
+        <v>157.7400021832436</v>
       </c>
       <c r="N87" t="n">
-        <v>150.6572965161178</v>
+        <v>242.0532394558274</v>
       </c>
       <c r="O87" t="n">
         <v>210.1155508096735</v>
@@ -4742,10 +4742,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E88" t="n">
-        <v>421416.7085694085</v>
+        <v>421333.3490762488</v>
       </c>
       <c r="F88" t="n">
-        <v>7574167.567877149</v>
+        <v>7574250.865892395</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4765,13 +4765,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L88" t="n">
-        <v>77.03961200453341</v>
+        <v>-6.319881155155599</v>
       </c>
       <c r="M88" t="n">
-        <v>189.3376841563731</v>
+        <v>272.6356994025409</v>
       </c>
       <c r="N88" t="n">
-        <v>204.4110086553744</v>
+        <v>272.7089391393835</v>
       </c>
       <c r="O88" t="n">
         <v>210.1155508096735</v>
@@ -4791,10 +4791,10 @@
         <v>7573978.230192993</v>
       </c>
       <c r="E89" t="n">
-        <v>421161.1919611964</v>
+        <v>421187.1382496135</v>
       </c>
       <c r="F89" t="n">
-        <v>7574030.511637233</v>
+        <v>7574031.423929232</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4814,13 +4814,13 @@
         <v>-8.801192007027566</v>
       </c>
       <c r="L89" t="n">
-        <v>-178.4769962075516</v>
+        <v>-152.5307077905163</v>
       </c>
       <c r="M89" t="n">
-        <v>52.28144424036145</v>
+        <v>53.19373623933643</v>
       </c>
       <c r="N89" t="n">
-        <v>185.9768469114594</v>
+        <v>161.5400581718849</v>
       </c>
       <c r="O89" t="n">
         <v>210.1155508096735</v>
@@ -4840,10 +4840,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E90" t="n">
-        <v>424934.2910807461</v>
+        <v>425024.1371898149</v>
       </c>
       <c r="F90" t="n">
-        <v>7577108.999522612</v>
+        <v>7577067.413273115</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4863,13 +4863,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L90" t="n">
-        <v>-12.81504481181037</v>
+        <v>77.03106425702572</v>
       </c>
       <c r="M90" t="n">
-        <v>237.1031221952289</v>
+        <v>195.5168726975098</v>
       </c>
       <c r="N90" t="n">
-        <v>237.449185991981</v>
+        <v>210.1443131992496</v>
       </c>
       <c r="O90" t="n">
         <v>461.3656302132206</v>
@@ -4889,10 +4889,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E91" t="n">
-        <v>424910.553080294</v>
+        <v>424929.8035363053</v>
       </c>
       <c r="F91" t="n">
-        <v>7577139.993241332</v>
+        <v>7577013.375184125</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4912,13 +4912,13 @@
         <v>461.3059184169397</v>
       </c>
       <c r="L91" t="n">
-        <v>-36.55304526392138</v>
+        <v>-17.30258925259113</v>
       </c>
       <c r="M91" t="n">
-        <v>268.0968409143388</v>
+        <v>141.4787837080657</v>
       </c>
       <c r="N91" t="n">
-        <v>270.5772370808649</v>
+        <v>142.5328938678982</v>
       </c>
       <c r="O91" t="n">
         <v>461.3656302132206</v>
@@ -4938,10 +4938,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E92" t="n">
-        <v>424785.9800002091</v>
+        <v>424835.1169237971</v>
       </c>
       <c r="F92" t="n">
-        <v>7576522.740706032</v>
+        <v>7576502.902368285</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -4961,13 +4961,13 @@
         <v>704.1788030171767</v>
       </c>
       <c r="L92" t="n">
-        <v>-161.1261253488483</v>
+        <v>-111.9892017608508</v>
       </c>
       <c r="M92" t="n">
-        <v>-349.1556943850592</v>
+        <v>-368.9940321324393</v>
       </c>
       <c r="N92" t="n">
-        <v>384.5404103490889</v>
+        <v>385.6140260161554</v>
       </c>
       <c r="O92" t="n">
         <v>926.5222753325139</v>
@@ -4987,10 +4987,10 @@
         <v>7576871.896400417</v>
       </c>
       <c r="E93" t="n">
-        <v>424940.1066169741</v>
+        <v>425001.1127942729</v>
       </c>
       <c r="F93" t="n">
-        <v>7576349.465056582</v>
+        <v>7576296.075964729</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -5010,13 +5010,13 @@
         <v>693.6228237506002</v>
       </c>
       <c r="L93" t="n">
-        <v>-6.999508583860006</v>
+        <v>54.00666871498106</v>
       </c>
       <c r="M93" t="n">
-        <v>-522.4313438348472</v>
+        <v>-575.8204356878996</v>
       </c>
       <c r="N93" t="n">
-        <v>522.4782312608822</v>
+        <v>578.3475550406453</v>
       </c>
       <c r="O93" t="n">
         <v>695.4513517348389</v>
@@ -5036,10 +5036,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E94" t="n">
-        <v>427320.9183527229</v>
+        <v>427333.6848630427</v>
       </c>
       <c r="F94" t="n">
-        <v>7564985.997207971</v>
+        <v>7564972.138162599</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -5059,13 +5059,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L94" t="n">
-        <v>-120.2114154072478</v>
+        <v>-107.44490508741</v>
       </c>
       <c r="M94" t="n">
-        <v>200.3383660512045</v>
+        <v>186.4793206788599</v>
       </c>
       <c r="N94" t="n">
-        <v>233.6369947296025</v>
+        <v>215.2183650855373</v>
       </c>
       <c r="O94" t="n">
         <v>643.6314367787569</v>
@@ -5085,10 +5085,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E95" t="n">
-        <v>427410.1235820304</v>
+        <v>427488.0959028273</v>
       </c>
       <c r="F95" t="n">
-        <v>7565027.335983455</v>
+        <v>7565011.628155124</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -5108,13 +5108,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L95" t="n">
-        <v>-31.00618609972298</v>
+        <v>46.96613469714066</v>
       </c>
       <c r="M95" t="n">
-        <v>241.6771415350959</v>
+        <v>225.9693132042885</v>
       </c>
       <c r="N95" t="n">
-        <v>243.6580068805977</v>
+        <v>230.7985015514784</v>
       </c>
       <c r="O95" t="n">
         <v>643.6314367787569</v>
@@ -5134,10 +5134,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E96" t="n">
-        <v>427352.5542852965</v>
+        <v>427393.814078991</v>
       </c>
       <c r="F96" t="n">
-        <v>7564993.758648116</v>
+        <v>7564968.727493674</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -5157,13 +5157,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L96" t="n">
-        <v>-88.57548283366486</v>
+        <v>-47.31568913912633</v>
       </c>
       <c r="M96" t="n">
-        <v>208.0998061960563</v>
+        <v>183.0686517534778</v>
       </c>
       <c r="N96" t="n">
-        <v>226.1661899976499</v>
+        <v>189.084387757283</v>
       </c>
       <c r="O96" t="n">
         <v>643.6314367787569</v>
@@ -5183,10 +5183,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E97" t="n">
-        <v>427466.9849386438</v>
+        <v>427453.8749963014</v>
       </c>
       <c r="F97" t="n">
-        <v>7565574.327886259</v>
+        <v>7565535.499288943</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -5206,13 +5206,13 @@
         <v>-643.0891535799019</v>
       </c>
       <c r="L97" t="n">
-        <v>25.85517051361967</v>
+        <v>12.74522817129036</v>
       </c>
       <c r="M97" t="n">
-        <v>788.669044339098</v>
+        <v>749.8404470225796</v>
       </c>
       <c r="N97" t="n">
-        <v>789.0927393792408</v>
+        <v>749.9487561374846</v>
       </c>
       <c r="O97" t="n">
         <v>643.6314367787569</v>
@@ -5232,10 +5232,10 @@
         <v>7564785.65884192</v>
       </c>
       <c r="E98" t="n">
-        <v>427565.7459185376</v>
+        <v>427534.3370612997</v>
       </c>
       <c r="F98" t="n">
-        <v>7566417.086564802</v>
+        <v>7566275.140680384</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5255,13 +5255,13 @@
         <v>-840.9715710794553</v>
       </c>
       <c r="L98" t="n">
-        <v>124.6161504074698</v>
+        <v>93.20729316957295</v>
       </c>
       <c r="M98" t="n">
-        <v>1631.427722881548</v>
+        <v>1489.481838463806</v>
       </c>
       <c r="N98" t="n">
-        <v>1636.18018565464</v>
+        <v>1492.395305076211</v>
       </c>
       <c r="O98" t="n">
         <v>869.8793098530427</v>
@@ -5281,10 +5281,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E99" t="n">
-        <v>427619.6601837698</v>
+        <v>427603.1565201496</v>
       </c>
       <c r="F99" t="n">
-        <v>7564912.871655382</v>
+        <v>7564906.262271484</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5304,13 +5304,13 @@
         <v>-771.6142980405129</v>
       </c>
       <c r="L99" t="n">
-        <v>239.3316483523231</v>
+        <v>222.8279847321101</v>
       </c>
       <c r="M99" t="n">
-        <v>282.3544759228826</v>
+        <v>275.7450920250267</v>
       </c>
       <c r="N99" t="n">
-        <v>370.1400923660198</v>
+        <v>354.524564107572</v>
       </c>
       <c r="O99" t="n">
         <v>836.555615798977</v>
@@ -5330,10 +5330,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E100" t="n">
-        <v>427328.6740518284</v>
+        <v>427311.9960361763</v>
       </c>
       <c r="F100" t="n">
-        <v>7564859.763091411</v>
+        <v>7564833.909452622</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5353,13 +5353,13 @@
         <v>-798.2308160406537</v>
       </c>
       <c r="L100" t="n">
-        <v>-51.65448358899448</v>
+        <v>-68.33249924116535</v>
       </c>
       <c r="M100" t="n">
-        <v>229.2459119511768</v>
+        <v>203.3922731624916</v>
       </c>
       <c r="N100" t="n">
-        <v>234.993348461552</v>
+        <v>214.564086544672</v>
       </c>
       <c r="O100" t="n">
         <v>802.9814167025017</v>
@@ -5379,10 +5379,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E101" t="n">
-        <v>427412.2498067708</v>
+        <v>427460.4643778591</v>
       </c>
       <c r="F101" t="n">
-        <v>7564902.421242949</v>
+        <v>7564913.147809386</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5402,13 +5402,13 @@
         <v>-853.6215962072214</v>
       </c>
       <c r="L101" t="n">
-        <v>31.92127135331975</v>
+        <v>80.1358424416976</v>
       </c>
       <c r="M101" t="n">
-        <v>271.9040634892881</v>
+        <v>282.6306299269199</v>
       </c>
       <c r="N101" t="n">
-        <v>273.7714143346582</v>
+        <v>293.7717246719435</v>
       </c>
       <c r="O101" t="n">
         <v>870.4291269391435</v>
@@ -5428,10 +5428,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E102" t="n">
-        <v>427354.1440738707</v>
+        <v>427381.6833924715</v>
       </c>
       <c r="F102" t="n">
-        <v>7564872.231951401</v>
+        <v>7564866.435806749</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5451,13 +5451,13 @@
         <v>-782.3757775407284</v>
       </c>
       <c r="L102" t="n">
-        <v>-26.18446154671255</v>
+        <v>1.354857054073364</v>
       </c>
       <c r="M102" t="n">
-        <v>241.7147719413042</v>
+        <v>235.9186272900552</v>
       </c>
       <c r="N102" t="n">
-        <v>243.1288896884284</v>
+        <v>235.9225176621785</v>
       </c>
       <c r="O102" t="n">
         <v>790.6008364352165</v>
@@ -5477,10 +5477,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E103" t="n">
-        <v>427358.91052203</v>
+        <v>427372.6316685273</v>
       </c>
       <c r="F103" t="n">
-        <v>7564822.163320785</v>
+        <v>7564804.388692657</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -5500,13 +5500,13 @@
         <v>-798.2308160406537</v>
       </c>
       <c r="L103" t="n">
-        <v>-21.41801338741789</v>
+        <v>-7.696866890124511</v>
       </c>
       <c r="M103" t="n">
-        <v>191.6461413260549</v>
+        <v>173.8715131971985</v>
       </c>
       <c r="N103" t="n">
-        <v>192.8392459605405</v>
+        <v>174.0417905602211</v>
       </c>
       <c r="O103" t="n">
         <v>802.9814167025017</v>
@@ -5526,10 +5526,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E104" t="n">
-        <v>427240.1406130336</v>
+        <v>427229.3114318463</v>
       </c>
       <c r="F104" t="n">
-        <v>7564771.21107658</v>
+        <v>7564750.003931363</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -5549,13 +5549,13 @@
         <v>-732.2700102074692</v>
       </c>
       <c r="L104" t="n">
-        <v>-140.1879223838332</v>
+        <v>-151.0171035711537</v>
       </c>
       <c r="M104" t="n">
-        <v>140.6938971206546</v>
+        <v>119.4867519037798</v>
       </c>
       <c r="N104" t="n">
-        <v>198.6137615304966</v>
+        <v>192.5701156761765</v>
       </c>
       <c r="O104" t="n">
         <v>732.5971785410549</v>
@@ -5575,10 +5575,10 @@
         <v>7564630.517179459</v>
       </c>
       <c r="E105" t="n">
-        <v>427420.9729858984</v>
+        <v>427380.9676051748</v>
       </c>
       <c r="F105" t="n">
-        <v>7564737.047919274</v>
+        <v>7564738.224867006</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -5598,13 +5598,13 @@
         <v>-725.0956905406589</v>
       </c>
       <c r="L105" t="n">
-        <v>40.64445048099151</v>
+        <v>0.6390697573660873</v>
       </c>
       <c r="M105" t="n">
-        <v>106.5307398149744</v>
+        <v>107.7076875464991</v>
       </c>
       <c r="N105" t="n">
-        <v>114.0209186089445</v>
+        <v>107.7095834490555</v>
       </c>
       <c r="O105" t="n">
         <v>742.8648385227489</v>
@@ -5624,10 +5624,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E106" t="n">
-        <v>427390.7000710276</v>
+        <v>427422.6452313705</v>
       </c>
       <c r="F106" t="n">
-        <v>7564980.953799201</v>
+        <v>7564975.9065581</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5647,13 +5647,13 @@
         <v>-472.0065820631571</v>
       </c>
       <c r="L106" t="n">
-        <v>-159.6700579794124</v>
+        <v>-127.7248976365081</v>
       </c>
       <c r="M106" t="n">
-        <v>24.21238576434553</v>
+        <v>19.16514466330409</v>
       </c>
       <c r="N106" t="n">
-        <v>161.4954087259152</v>
+        <v>129.1547608345192</v>
       </c>
       <c r="O106" t="n">
         <v>479.21832990863</v>
@@ -5673,10 +5673,10 @@
         <v>7564956.741413437</v>
       </c>
       <c r="E107" t="n">
-        <v>427429.7281186823</v>
+        <v>427460.9764251499</v>
       </c>
       <c r="F107" t="n">
-        <v>7565146.2307778</v>
+        <v>7565120.617721931</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5696,13 +5696,13 @@
         <v>-527.3973622297248</v>
       </c>
       <c r="L107" t="n">
-        <v>-120.642010324751</v>
+        <v>-89.39370385708753</v>
       </c>
       <c r="M107" t="n">
-        <v>189.4893643632531</v>
+        <v>163.8763084942475</v>
       </c>
       <c r="N107" t="n">
-        <v>224.6346230258974</v>
+        <v>186.6726513846912</v>
       </c>
       <c r="O107" t="n">
         <v>527.3973946174215</v>
@@ -5722,10 +5722,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E108" t="n">
-        <v>425225.4482864461</v>
+        <v>425236.6220436406</v>
       </c>
       <c r="F108" t="n">
-        <v>7576700.291939638</v>
+        <v>7576704.184766509</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5745,13 +5745,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L108" t="n">
-        <v>-198.2259699097485</v>
+        <v>-187.0522127152653</v>
       </c>
       <c r="M108" t="n">
-        <v>107.8624815316871</v>
+        <v>111.7553084027022</v>
       </c>
       <c r="N108" t="n">
-        <v>225.6719966429908</v>
+        <v>217.8939632891649</v>
       </c>
       <c r="O108" t="n">
         <v>737.6384903303916</v>
@@ -5771,10 +5771,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E109" t="n">
-        <v>425086.6026043226</v>
+        <v>425165.4026680302</v>
       </c>
       <c r="F109" t="n">
-        <v>7576732.229255299</v>
+        <v>7576772.582118531</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5794,13 +5794,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L109" t="n">
-        <v>-337.0716520332498</v>
+        <v>-258.2715883256169</v>
       </c>
       <c r="M109" t="n">
-        <v>139.7997971931472</v>
+        <v>180.1526604248211</v>
       </c>
       <c r="N109" t="n">
-        <v>364.912704492005</v>
+        <v>314.8955293337424</v>
       </c>
       <c r="O109" t="n">
         <v>737.6384903303916</v>
@@ -5820,10 +5820,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E110" t="n">
-        <v>425078.3474708577</v>
+        <v>425058.3269638729</v>
       </c>
       <c r="F110" t="n">
-        <v>7576768.813067215</v>
+        <v>7576743.53145741</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5843,13 +5843,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L110" t="n">
-        <v>-345.3267854981241</v>
+        <v>-365.3472924829694</v>
       </c>
       <c r="M110" t="n">
-        <v>176.3836091095582</v>
+        <v>151.1019993042573</v>
       </c>
       <c r="N110" t="n">
-        <v>387.7650917049919</v>
+        <v>395.3611745206908</v>
       </c>
       <c r="O110" t="n">
         <v>737.6384903303916</v>
@@ -5869,10 +5869,10 @@
         <v>7576592.429458106</v>
       </c>
       <c r="E111" t="n">
-        <v>425041.0847387236</v>
+        <v>425045.4511911583</v>
       </c>
       <c r="F111" t="n">
-        <v>7576804.214511894</v>
+        <v>7576821.149080197</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5892,13 +5892,13 @@
         <v>-711.9979468937963</v>
       </c>
       <c r="L111" t="n">
-        <v>-382.5895176322083</v>
+        <v>-378.2230651975842</v>
       </c>
       <c r="M111" t="n">
-        <v>211.785053787753</v>
+        <v>228.7196220913902</v>
       </c>
       <c r="N111" t="n">
-        <v>437.2958358021801</v>
+        <v>442.0015300619268</v>
       </c>
       <c r="O111" t="n">
         <v>737.6384903303916</v>
@@ -5918,10 +5918,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E112" t="n">
-        <v>424432.4468504337</v>
+        <v>424449.5963790391</v>
       </c>
       <c r="F112" t="n">
-        <v>7576472.849186031</v>
+        <v>7576442.548590602</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -5941,13 +5941,13 @@
         <v>1144.402715245634</v>
       </c>
       <c r="L112" t="n">
-        <v>-380.4933173818281</v>
+        <v>-363.3437887764303</v>
       </c>
       <c r="M112" t="n">
-        <v>-636.0711312144995</v>
+        <v>-666.3717266432941</v>
       </c>
       <c r="N112" t="n">
-        <v>741.1893472903679</v>
+        <v>758.9927449666276</v>
       </c>
       <c r="O112" t="n">
         <v>1382.186005655246</v>
@@ -5967,10 +5967,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E113" t="n">
-        <v>424437.2508941998</v>
+        <v>424507.4688806385</v>
       </c>
       <c r="F113" t="n">
-        <v>7576584.413274766</v>
+        <v>7576560.57891015</v>
       </c>
       <c r="G113" t="n">
         <v>6</v>
@@ -5990,13 +5990,13 @@
         <v>1068.512310245695</v>
       </c>
       <c r="L113" t="n">
-        <v>-375.6892736156587</v>
+        <v>-305.4712871770025</v>
       </c>
       <c r="M113" t="n">
-        <v>-524.5070424797013</v>
+        <v>-548.3414070960134</v>
       </c>
       <c r="N113" t="n">
-        <v>645.1744476656407</v>
+        <v>627.6870287218071</v>
       </c>
       <c r="O113" t="n">
         <v>1387.13526772572</v>
@@ -6016,10 +6016,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E114" t="n">
-        <v>424426.9258319371</v>
+        <v>424548.1326398896</v>
       </c>
       <c r="F114" t="n">
-        <v>7576661.594042838</v>
+        <v>7576692.977733225</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
@@ -6039,13 +6039,13 @@
         <v>824.3912774456664</v>
       </c>
       <c r="L114" t="n">
-        <v>-386.014335878368</v>
+        <v>-264.8075279258774</v>
       </c>
       <c r="M114" t="n">
-        <v>-447.3262744080275</v>
+        <v>-415.942584021017</v>
       </c>
       <c r="N114" t="n">
-        <v>590.8535040764194</v>
+        <v>493.0834209829966</v>
       </c>
       <c r="O114" t="n">
         <v>1345.41517708645</v>
@@ -6065,10 +6065,10 @@
         <v>7577108.920317246</v>
       </c>
       <c r="E115" t="n">
-        <v>424485.4021951468</v>
+        <v>424508.2774604334</v>
       </c>
       <c r="F115" t="n">
-        <v>7576405.558649128</v>
+        <v>7576396.845284283</v>
       </c>
       <c r="G115" t="n">
         <v>7</v>
@@ -6088,13 +6088,13 @@
         <v>1158.41812096004</v>
       </c>
       <c r="L115" t="n">
-        <v>-327.5379726687097</v>
+        <v>-304.6627073820564</v>
       </c>
       <c r="M115" t="n">
-        <v>-703.3616681173444</v>
+        <v>-712.0750329624861</v>
       </c>
       <c r="N115" t="n">
-        <v>775.8857903820264</v>
+        <v>774.5128906854231</v>
       </c>
       <c r="O115" t="n">
         <v>1505.535551042128</v>
@@ -6114,10 +6114,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E116" t="n">
-        <v>424620.4657478828</v>
+        <v>424733.4513611415</v>
       </c>
       <c r="F116" t="n">
-        <v>7576499.486830811</v>
+        <v>7576464.727155603</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6137,13 +6137,13 @@
         <v>273.9861762998626</v>
       </c>
       <c r="L116" t="n">
-        <v>154.8626282623736</v>
+        <v>267.8482415209874</v>
       </c>
       <c r="M116" t="n">
-        <v>93.90530351083726</v>
+        <v>59.14562830235809</v>
       </c>
       <c r="N116" t="n">
-        <v>181.1094687193151</v>
+        <v>274.3007215323465</v>
       </c>
       <c r="O116" t="n">
         <v>731.7073717843109</v>
@@ -6163,10 +6163,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E117" t="n">
-        <v>424469.094452745</v>
+        <v>424488.6873674446</v>
       </c>
       <c r="F117" t="n">
-        <v>7576523.579106537</v>
+        <v>7576487.259086971</v>
       </c>
       <c r="G117" t="n">
         <v>8</v>
@@ -6186,13 +6186,13 @@
         <v>432.4426866752328</v>
       </c>
       <c r="L117" t="n">
-        <v>3.491333124577068</v>
+        <v>23.08424782415386</v>
       </c>
       <c r="M117" t="n">
-        <v>117.9975792365149</v>
+        <v>81.6775596709922</v>
       </c>
       <c r="N117" t="n">
-        <v>118.0492190260671</v>
+        <v>84.8770066120115</v>
       </c>
       <c r="O117" t="n">
         <v>757.8046054740696</v>
@@ -6212,10 +6212,10 @@
         <v>7576405.5815273</v>
       </c>
       <c r="E118" t="n">
-        <v>424321.9787183857</v>
+        <v>424461.4240565855</v>
       </c>
       <c r="F118" t="n">
-        <v>7576326.394169117</v>
+        <v>7576335.829536905</v>
       </c>
       <c r="G118" t="n">
         <v>6</v>
@@ -6235,13 +6235,13 @@
         <v>462.1014478001744</v>
       </c>
       <c r="L118" t="n">
-        <v>-143.6244012347306</v>
+        <v>-4.179063035000581</v>
       </c>
       <c r="M118" t="n">
-        <v>-79.18735818285495</v>
+        <v>-69.75199039559811</v>
       </c>
       <c r="N118" t="n">
-        <v>164.0079459234053</v>
+        <v>69.87706871354951</v>
       </c>
       <c r="O118" t="n">
         <v>1116.76538578052</v>
@@ -6261,10 +6261,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E119" t="n">
-        <v>422432.062595196</v>
+        <v>422380.938302503</v>
       </c>
       <c r="F119" t="n">
-        <v>7574505.949786356</v>
+        <v>7574454.672054168</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6284,13 +6284,13 @@
         <v>-629.3176773041487</v>
       </c>
       <c r="L119" t="n">
-        <v>265.4253048375249</v>
+        <v>214.3010121445404</v>
       </c>
       <c r="M119" t="n">
-        <v>304.7902936600149</v>
+        <v>253.5125614721328</v>
       </c>
       <c r="N119" t="n">
-        <v>404.1629814288428</v>
+        <v>331.9541272982404</v>
       </c>
       <c r="O119" t="n">
         <v>642.3448153729219</v>
@@ -6310,10 +6310,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E120" t="n">
-        <v>422499.5549350184</v>
+        <v>422506.590415583</v>
       </c>
       <c r="F120" t="n">
-        <v>7574551.347130992</v>
+        <v>7574531.638389664</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6333,13 +6333,13 @@
         <v>-629.3176773041487</v>
       </c>
       <c r="L120" t="n">
-        <v>332.9176446599886</v>
+        <v>339.9531252245652</v>
       </c>
       <c r="M120" t="n">
-        <v>350.1876382958144</v>
+        <v>330.4788969680667</v>
       </c>
       <c r="N120" t="n">
-        <v>483.1827192079147</v>
+        <v>474.1143624603445</v>
       </c>
       <c r="O120" t="n">
         <v>642.3448153729219</v>
@@ -6359,10 +6359,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E121" t="n">
-        <v>422140.4884737656</v>
+        <v>422057.5190651194</v>
       </c>
       <c r="F121" t="n">
-        <v>7574102.291130601</v>
+        <v>7574084.486769123</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6382,13 +6382,13 @@
         <v>214.1281076958403</v>
       </c>
       <c r="L121" t="n">
-        <v>-26.14881659287494</v>
+        <v>-109.1182252389845</v>
       </c>
       <c r="M121" t="n">
-        <v>-98.86836209427565</v>
+        <v>-116.6727235727012</v>
       </c>
       <c r="N121" t="n">
-        <v>102.2678523897545</v>
+        <v>159.7476494511819</v>
       </c>
       <c r="O121" t="n">
         <v>1058.778241350072</v>
@@ -6408,10 +6408,10 @@
         <v>7574201.159492696</v>
       </c>
       <c r="E122" t="n">
-        <v>422024.5354012843</v>
+        <v>422054.163916804</v>
       </c>
       <c r="F122" t="n">
-        <v>7574128.033009566</v>
+        <v>7574137.954686741</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6431,13 +6431,13 @@
         <v>214.1281076958403</v>
       </c>
       <c r="L122" t="n">
-        <v>-142.1018890740816</v>
+        <v>-112.4733735544141</v>
       </c>
       <c r="M122" t="n">
-        <v>-73.12648312933743</v>
+        <v>-63.20480595435947</v>
       </c>
       <c r="N122" t="n">
-        <v>159.8137334939893</v>
+        <v>129.0159186086702</v>
       </c>
       <c r="O122" t="n">
         <v>1058.778241350072</v>
@@ -6457,10 +6457,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E123" t="n">
-        <v>421995.860001073</v>
+        <v>421999.7504378335</v>
       </c>
       <c r="F123" t="n">
-        <v>7574089.924197604</v>
+        <v>7574078.615672765</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6480,13 +6480,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L123" t="n">
-        <v>34.65552236471558</v>
+        <v>38.54595912515651</v>
       </c>
       <c r="M123" t="n">
-        <v>-260.990721126087</v>
+        <v>-272.2992459647357</v>
       </c>
       <c r="N123" t="n">
-        <v>263.2815256418236</v>
+        <v>275.0139456788363</v>
       </c>
       <c r="O123" t="n">
         <v>907.6056608749877</v>
@@ -6506,10 +6506,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E124" t="n">
-        <v>422004.9121315778</v>
+        <v>421964.4290618674</v>
       </c>
       <c r="F124" t="n">
-        <v>7574064.601934065</v>
+        <v>7574041.755358211</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6529,13 +6529,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L124" t="n">
-        <v>43.70765286951791</v>
+        <v>3.224583159084432</v>
       </c>
       <c r="M124" t="n">
-        <v>-286.3129846649244</v>
+        <v>-309.1595605192706</v>
       </c>
       <c r="N124" t="n">
-        <v>289.6299088614633</v>
+        <v>309.176376518353</v>
       </c>
       <c r="O124" t="n">
         <v>907.6056608749877</v>
@@ -6555,10 +6555,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E125" t="n">
-        <v>422020.99836377</v>
+        <v>421999.7504378335</v>
       </c>
       <c r="F125" t="n">
-        <v>7574068.232654107</v>
+        <v>7574064.054608813</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6578,13 +6578,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L125" t="n">
-        <v>59.79388506163377</v>
+        <v>38.54595912515651</v>
       </c>
       <c r="M125" t="n">
-        <v>-282.6822646232322</v>
+        <v>-286.8603099174798</v>
       </c>
       <c r="N125" t="n">
-        <v>288.9369679069865</v>
+        <v>289.4384707858144</v>
       </c>
       <c r="O125" t="n">
         <v>907.6056608749877</v>
@@ -6604,10 +6604,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E126" t="n">
-        <v>422012.9743071108</v>
+        <v>421999.7504378335</v>
       </c>
       <c r="F126" t="n">
-        <v>7574056.014247661</v>
+        <v>7574014.486303398</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6627,13 +6627,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L126" t="n">
-        <v>51.76982840249548</v>
+        <v>38.54595912515651</v>
       </c>
       <c r="M126" t="n">
-        <v>-294.900671068579</v>
+        <v>-336.4286153316498</v>
       </c>
       <c r="N126" t="n">
-        <v>299.4102886166773</v>
+        <v>338.629597316669</v>
       </c>
       <c r="O126" t="n">
         <v>907.6056608749877</v>
@@ -6653,10 +6653,10 @@
         <v>7574350.91491873</v>
       </c>
       <c r="E127" t="n">
-        <v>422018.7598834332</v>
+        <v>422000.1590980069</v>
       </c>
       <c r="F127" t="n">
-        <v>7574085.886159929</v>
+        <v>7574066.005324334</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6676,13 +6676,13 @@
         <v>363.8835337301716</v>
       </c>
       <c r="L127" t="n">
-        <v>57.55540472484427</v>
+        <v>38.95461929857265</v>
       </c>
       <c r="M127" t="n">
-        <v>-265.0287588015199</v>
+        <v>-284.9095943961293</v>
       </c>
       <c r="N127" t="n">
-        <v>271.2063192569724</v>
+        <v>287.5603229648757</v>
       </c>
       <c r="O127" t="n">
         <v>907.6056608749877</v>
@@ -6702,10 +6702,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E128" t="n">
-        <v>422237.3300645528</v>
+        <v>422260.03656552</v>
       </c>
       <c r="F128" t="n">
-        <v>7574317.324117566</v>
+        <v>7574316.867973336</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6725,13 +6725,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L128" t="n">
-        <v>387.2745313490159</v>
+        <v>409.9810323161655</v>
       </c>
       <c r="M128" t="n">
-        <v>443.38767822925</v>
+        <v>442.9315339988098</v>
       </c>
       <c r="N128" t="n">
-        <v>588.7055255704033</v>
+        <v>603.5501558856294</v>
       </c>
       <c r="O128" t="n">
         <v>729.1420156673895</v>
@@ -6751,10 +6751,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E129" t="n">
-        <v>422121.7090574165</v>
+        <v>422171.6155012624</v>
       </c>
       <c r="F129" t="n">
-        <v>7574155.491538598</v>
+        <v>7574122.098525547</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6774,13 +6774,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L129" t="n">
-        <v>271.6535242127138</v>
+        <v>321.5599680585437</v>
       </c>
       <c r="M129" t="n">
-        <v>281.5550992609933</v>
+        <v>248.1620862102136</v>
       </c>
       <c r="N129" t="n">
-        <v>391.2402217782002</v>
+        <v>406.1837442463905</v>
       </c>
       <c r="O129" t="n">
         <v>729.1420156673895</v>
@@ -6800,10 +6800,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E130" t="n">
-        <v>422004.1680500504</v>
+        <v>422061.0824963526</v>
       </c>
       <c r="F130" t="n">
-        <v>7574270.109076356</v>
+        <v>7574228.691368808</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6823,13 +6823,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L130" t="n">
-        <v>154.112516846566</v>
+        <v>211.0269631487899</v>
       </c>
       <c r="M130" t="n">
-        <v>396.1726370183751</v>
+        <v>354.7549294708297</v>
       </c>
       <c r="N130" t="n">
-        <v>425.092256070228</v>
+        <v>412.775288940186</v>
       </c>
       <c r="O130" t="n">
         <v>729.1420156673895</v>
@@ -6849,10 +6849,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E131" t="n">
-        <v>422196.4064694947</v>
+        <v>422247.9205560462</v>
       </c>
       <c r="F131" t="n">
-        <v>7574179.537573358</v>
+        <v>7574205.104081804</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6872,13 +6872,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L131" t="n">
-        <v>346.3509362908662</v>
+        <v>397.8650228423649</v>
       </c>
       <c r="M131" t="n">
-        <v>305.6011340208352</v>
+        <v>331.1676424667239</v>
       </c>
       <c r="N131" t="n">
-        <v>461.899365862717</v>
+        <v>517.6568205078761</v>
       </c>
       <c r="O131" t="n">
         <v>729.1420156673895</v>
@@ -6898,10 +6898,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E132" t="n">
-        <v>422262.8380831674</v>
+        <v>422307.7491429822</v>
       </c>
       <c r="F132" t="n">
-        <v>7574364.939538519</v>
+        <v>7574316.653294187</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6921,13 +6921,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L132" t="n">
-        <v>412.7825499635655</v>
+        <v>457.6936097783619</v>
       </c>
       <c r="M132" t="n">
-        <v>491.0030991816893</v>
+        <v>442.7168548498303</v>
       </c>
       <c r="N132" t="n">
-        <v>641.4619840336973</v>
+        <v>636.7744137448309</v>
       </c>
       <c r="O132" t="n">
         <v>729.1420156673895</v>
@@ -6947,10 +6947,10 @@
         <v>7573873.936439337</v>
       </c>
       <c r="E133" t="n">
-        <v>422182.4539611975</v>
+        <v>422239.5473172442</v>
       </c>
       <c r="F133" t="n">
-        <v>7574178.097188961</v>
+        <v>7574133.774626471</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6970,13 +6970,13 @@
         <v>-113.0949456626549</v>
       </c>
       <c r="L133" t="n">
-        <v>332.3984279936994</v>
+        <v>389.4917840404087</v>
       </c>
       <c r="M133" t="n">
-        <v>304.160749623552</v>
+        <v>259.8381871338934</v>
       </c>
       <c r="N133" t="n">
-        <v>450.5579613592947</v>
+        <v>468.2090701043804</v>
       </c>
       <c r="O133" t="n">
         <v>729.1420156673895</v>
@@ -6996,10 +6996,10 @@
         <v>7565154.566545373</v>
       </c>
       <c r="E134" t="n">
-        <v>427264.0301118075</v>
+        <v>427241.7051556005</v>
       </c>
       <c r="F134" t="n">
-        <v>7565146.086130931</v>
+        <v>7565153.171836577</v>
       </c>
       <c r="G134" t="n">
         <v>4</v>
@@ -7019,13 +7019,13 @@
         <v>-274.1814501271583</v>
       </c>
       <c r="L134" t="n">
-        <v>262.8551389877102</v>
+        <v>240.5301827806979</v>
       </c>
       <c r="M134" t="n">
-        <v>-8.480414441786706</v>
+        <v>-1.39470879547298</v>
       </c>
       <c r="N134" t="n">
-        <v>262.9919039083769</v>
+        <v>240.534226340328</v>
       </c>
       <c r="O134" t="n">
         <v>540.9958536667958</v>
@@ -7045,10 +7045,10 @@
         <v>7565154.566545373</v>
       </c>
       <c r="E135" t="n">
-        <v>427289.5170664018</v>
+        <v>427319.3758322417</v>
       </c>
       <c r="F135" t="n">
-        <v>7565142.721085585</v>
+        <v>7565101.452440619</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -7068,13 +7068,13 @@
         <v>-274.1814501271583</v>
       </c>
       <c r="L135" t="n">
-        <v>288.3420935820322</v>
+        <v>318.2008594218642</v>
       </c>
       <c r="M135" t="n">
-        <v>-11.84545978810638</v>
+        <v>-53.11410475429147</v>
       </c>
       <c r="N135" t="n">
-        <v>288.5853042842984</v>
+        <v>322.6033091285066</v>
       </c>
       <c r="O135" t="n">
         <v>540.9958536667958</v>
@@ -7094,10 +7094,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E136" t="n">
-        <v>421195.3062558516</v>
+        <v>421280.8473063783</v>
       </c>
       <c r="F136" t="n">
-        <v>7573773.752673807</v>
+        <v>7573722.83295866</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7117,13 +7117,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L136" t="n">
-        <v>53.9512978339917</v>
+        <v>139.4923483606544</v>
       </c>
       <c r="M136" t="n">
-        <v>-126.4475608775392</v>
+        <v>-177.3672760240734</v>
       </c>
       <c r="N136" t="n">
-        <v>137.4762822811668</v>
+        <v>225.6485449883735</v>
       </c>
       <c r="O136" t="n">
         <v>87.60483223299717</v>
@@ -7143,10 +7143,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E137" t="n">
-        <v>421113.7043525971</v>
+        <v>421121.7796114759</v>
       </c>
       <c r="F137" t="n">
-        <v>7573700.734944073</v>
+        <v>7573714.832362946</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7166,13 +7166,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L137" t="n">
-        <v>-27.65060542052379</v>
+        <v>-19.57534654176561</v>
       </c>
       <c r="M137" t="n">
-        <v>-199.4652906116098</v>
+        <v>-185.367871738039</v>
       </c>
       <c r="N137" t="n">
-        <v>201.3726846890994</v>
+        <v>186.3986106839862</v>
       </c>
       <c r="O137" t="n">
         <v>87.60483223299717</v>
@@ -7192,10 +7192,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E138" t="n">
-        <v>421094.5312964344</v>
+        <v>421085.0887911991</v>
       </c>
       <c r="F138" t="n">
-        <v>7573907.993827574</v>
+        <v>7573892.319891831</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7215,13 +7215,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L138" t="n">
-        <v>-46.82366158324294</v>
+        <v>-56.26616681850282</v>
       </c>
       <c r="M138" t="n">
-        <v>7.793592889793217</v>
+        <v>-7.88034285325557</v>
       </c>
       <c r="N138" t="n">
-        <v>47.46783515385862</v>
+        <v>56.81532655835434</v>
       </c>
       <c r="O138" t="n">
         <v>87.60483223299717</v>
@@ -7241,10 +7241,10 @@
         <v>7573900.200234684</v>
       </c>
       <c r="E139" t="n">
-        <v>421076.70444012</v>
+        <v>421054.3095362262</v>
       </c>
       <c r="F139" t="n">
-        <v>7573905.900529404</v>
+        <v>7573873.933714323</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7264,13 +7264,13 @@
         <v>-86.83115031570196</v>
       </c>
       <c r="L139" t="n">
-        <v>-64.65051789762219</v>
+        <v>-87.04542179143755</v>
       </c>
       <c r="M139" t="n">
-        <v>5.700294720008969</v>
+        <v>-26.26652036141604</v>
       </c>
       <c r="N139" t="n">
-        <v>64.90133145264224</v>
+        <v>90.92214002511133</v>
       </c>
       <c r="O139" t="n">
         <v>87.60483223299717</v>
@@ -7290,10 +7290,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E140" t="n">
-        <v>421083.7931133622</v>
+        <v>421098.4446116762</v>
       </c>
       <c r="F140" t="n">
-        <v>7573939.271020779</v>
+        <v>7573921.45769731</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7313,13 +7313,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L140" t="n">
-        <v>-104.9152782332967</v>
+        <v>-90.26377991930349</v>
       </c>
       <c r="M140" t="n">
-        <v>49.79386608861387</v>
+        <v>31.98054261878133</v>
       </c>
       <c r="N140" t="n">
-        <v>116.1320141340056</v>
+        <v>95.76170984016599</v>
       </c>
       <c r="O140" t="n">
         <v>113.992791523481</v>
@@ -7339,10 +7339,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E141" t="n">
-        <v>421077.7532263589</v>
+        <v>421076.6371177511</v>
       </c>
       <c r="F141" t="n">
-        <v>7573918.594556551</v>
+        <v>7573907.109364573</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7362,13 +7362,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L141" t="n">
-        <v>-110.9551652365481</v>
+        <v>-112.0712738443981</v>
       </c>
       <c r="M141" t="n">
-        <v>29.11740186065435</v>
+        <v>17.63220988214016</v>
       </c>
       <c r="N141" t="n">
-        <v>114.7121257051081</v>
+        <v>113.4498358149271</v>
       </c>
       <c r="O141" t="n">
         <v>113.992791523481</v>
@@ -7388,10 +7388,10 @@
         <v>7573889.477154691</v>
       </c>
       <c r="E142" t="n">
-        <v>421139.0855170384</v>
+        <v>421182.6562596635</v>
       </c>
       <c r="F142" t="n">
-        <v>7573963.565131649</v>
+        <v>7573950.191879752</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7411,13 +7411,13 @@
         <v>-97.55423030909151</v>
       </c>
       <c r="L142" t="n">
-        <v>-49.62287455709884</v>
+        <v>-6.052131931937765</v>
       </c>
       <c r="M142" t="n">
-        <v>74.08797695860267</v>
+        <v>60.71472506131977</v>
       </c>
       <c r="N142" t="n">
-        <v>89.17094823499416</v>
+        <v>61.01562209953474</v>
       </c>
       <c r="O142" t="n">
         <v>113.992791523481</v>
@@ -7437,10 +7437,10 @@
         <v>7573841.210708896</v>
       </c>
       <c r="E143" t="n">
-        <v>421066.9612849313</v>
+        <v>421092.8119330482</v>
       </c>
       <c r="F143" t="n">
-        <v>7573673.056386124</v>
+        <v>7573650.873991118</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7460,13 +7460,13 @@
         <v>-145.8206761041656</v>
       </c>
       <c r="L143" t="n">
-        <v>-210.0807634903467</v>
+        <v>-184.2301153734443</v>
       </c>
       <c r="M143" t="n">
-        <v>-168.1543227713555</v>
+        <v>-190.3367177778855</v>
       </c>
       <c r="N143" t="n">
-        <v>269.0906974523278</v>
+        <v>264.8939439567674</v>
       </c>
       <c r="O143" t="n">
         <v>207.2732644944556</v>
@@ -7486,10 +7486,10 @@
         <v>7573841.210708896</v>
       </c>
       <c r="E144" t="n">
-        <v>421125.0837729131</v>
+        <v>421110.5864842014</v>
       </c>
       <c r="F144" t="n">
-        <v>7573658.780848696</v>
+        <v>7573655.174381167</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7509,13 +7509,13 @@
         <v>-145.8206761041656</v>
       </c>
       <c r="L144" t="n">
-        <v>-151.9582755084848</v>
+        <v>-166.4555642202613</v>
       </c>
       <c r="M144" t="n">
-        <v>-182.4298601998016</v>
+        <v>-186.0363277290016</v>
       </c>
       <c r="N144" t="n">
-        <v>237.4278235338726</v>
+        <v>249.6336717968512</v>
       </c>
       <c r="O144" t="n">
         <v>207.2732644944556</v>
@@ -7535,10 +7535,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E145" t="n">
-        <v>421111.606042737</v>
+        <v>421122.1560129003</v>
       </c>
       <c r="F145" t="n">
-        <v>7573924.626767765</v>
+        <v>7573918.221537434</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7558,13 +7558,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L145" t="n">
-        <v>97.94553097011521</v>
+        <v>108.4955011333805</v>
       </c>
       <c r="M145" t="n">
-        <v>180.810852330178</v>
+        <v>174.4056219998747</v>
       </c>
       <c r="N145" t="n">
-        <v>205.6353358676063</v>
+        <v>205.3986240249592</v>
       </c>
       <c r="O145" t="n">
         <v>269.4952790421774</v>
@@ -7584,10 +7584,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E146" t="n">
-        <v>420855.9254447992</v>
+        <v>420654.825029947</v>
       </c>
       <c r="F146" t="n">
-        <v>7574156.190132736</v>
+        <v>7574118.550738786</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7607,13 +7607,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L146" t="n">
-        <v>-157.7350669677253</v>
+        <v>-358.8354818199296</v>
       </c>
       <c r="M146" t="n">
-        <v>412.3742173016071</v>
+        <v>374.7348233517259</v>
       </c>
       <c r="N146" t="n">
-        <v>441.5120003424888</v>
+        <v>518.8343578112289</v>
       </c>
       <c r="O146" t="n">
         <v>269.4952790421774</v>
@@ -7633,10 +7633,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E147" t="n">
-        <v>421171.9150442765</v>
+        <v>421269.4570143895</v>
       </c>
       <c r="F147" t="n">
-        <v>7573780.825222463</v>
+        <v>7573735.637600326</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7656,13 +7656,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L147" t="n">
-        <v>158.2545325095998</v>
+        <v>255.7965026225429</v>
       </c>
       <c r="M147" t="n">
-        <v>37.00930702872574</v>
+        <v>-8.178315108641982</v>
       </c>
       <c r="N147" t="n">
-        <v>162.524416216698</v>
+        <v>255.9272076039217</v>
       </c>
       <c r="O147" t="n">
         <v>269.4952790421774</v>
@@ -7682,10 +7682,10 @@
         <v>7573743.815915435</v>
       </c>
       <c r="E148" t="n">
-        <v>421093.6856640314</v>
+        <v>421076.4829757885</v>
       </c>
       <c r="F148" t="n">
-        <v>7573863.546705936</v>
+        <v>7573828.697231346</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7705,13 +7705,13 @@
         <v>-243.2154695652425</v>
       </c>
       <c r="L148" t="n">
-        <v>80.02515226451214</v>
+        <v>62.82246402162127</v>
       </c>
       <c r="M148" t="n">
-        <v>119.7307905014604</v>
+        <v>84.88131591118872</v>
       </c>
       <c r="N148" t="n">
-        <v>144.012107786335</v>
+        <v>105.6006618187733</v>
       </c>
       <c r="O148" t="n">
         <v>269.4952790421774</v>
@@ -7731,10 +7731,10 @@
         <v>7573723.219214113</v>
       </c>
       <c r="E149" t="n">
-        <v>421059.8436327436</v>
+        <v>421087.7680020408</v>
       </c>
       <c r="F149" t="n">
-        <v>7573702.600745099</v>
+        <v>7573659.16840677</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7754,13 +7754,13 @@
         <v>-263.8121708864346</v>
       </c>
       <c r="L149" t="n">
-        <v>-85.59413073817268</v>
+        <v>-57.66976144094951</v>
       </c>
       <c r="M149" t="n">
-        <v>-20.61846901476383</v>
+        <v>-64.0508073437959</v>
       </c>
       <c r="N149" t="n">
-        <v>88.04246975940744</v>
+        <v>86.18762849764509</v>
       </c>
       <c r="O149" t="n">
         <v>264.2789242965521</v>
@@ -7780,10 +7780,10 @@
         <v>7573723.219214113</v>
       </c>
       <c r="E150" t="n">
-        <v>421092.3892779901</v>
+        <v>421102.8384231405</v>
       </c>
       <c r="F150" t="n">
-        <v>7573804.629377075</v>
+        <v>7573754.060749769</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7803,13 +7803,13 @@
         <v>-263.8121708864346</v>
       </c>
       <c r="L150" t="n">
-        <v>-53.04848549165763</v>
+        <v>-42.59934034128673</v>
       </c>
       <c r="M150" t="n">
-        <v>81.4101629620418</v>
+        <v>30.84153565578163</v>
       </c>
       <c r="N150" t="n">
-        <v>97.16870096108526</v>
+        <v>52.5918636209027</v>
       </c>
       <c r="O150" t="n">
         <v>264.2789242965521</v>
@@ -7829,10 +7829,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E151" t="n">
-        <v>421028.9837195358</v>
+        <v>421065.2897024975</v>
       </c>
       <c r="F151" t="n">
-        <v>7573682.302022936</v>
+        <v>7573680.224825546</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7852,13 +7852,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L151" t="n">
-        <v>-119.7643991592922</v>
+        <v>-83.45841619750718</v>
       </c>
       <c r="M151" t="n">
-        <v>1.683915574103594</v>
+        <v>-0.3932818155735731</v>
       </c>
       <c r="N151" t="n">
-        <v>119.7762366984661</v>
+        <v>83.45934282501145</v>
       </c>
       <c r="O151" t="n">
         <v>307.0024239049048</v>
@@ -7878,10 +7878,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E152" t="n">
-        <v>421074.6632174486</v>
+        <v>421118.7574546413</v>
       </c>
       <c r="F152" t="n">
-        <v>7573745.635566549</v>
+        <v>7573721.246640141</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7901,13 +7901,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L152" t="n">
-        <v>-74.08490124641685</v>
+        <v>-29.99066405376652</v>
       </c>
       <c r="M152" t="n">
-        <v>65.01745918765664</v>
+        <v>40.62853277940303</v>
       </c>
       <c r="N152" t="n">
-        <v>98.56897377932842</v>
+        <v>50.49868915321377</v>
       </c>
       <c r="O152" t="n">
         <v>307.0024239049048</v>
@@ -7927,10 +7927,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E153" t="n">
-        <v>421086.230097764</v>
+        <v>421118.7574546413</v>
       </c>
       <c r="F153" t="n">
-        <v>7573765.948273476</v>
+        <v>7573740.381785346</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L153" t="n">
-        <v>-62.51802093104925</v>
+        <v>-29.99066405376652</v>
       </c>
       <c r="M153" t="n">
-        <v>85.3301661144942</v>
+        <v>59.76367798447609</v>
       </c>
       <c r="N153" t="n">
-        <v>105.7815682917506</v>
+        <v>66.86656217137259</v>
       </c>
       <c r="O153" t="n">
         <v>307.0024239049048</v>
@@ -7976,10 +7976,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E154" t="n">
-        <v>421069.8748712118</v>
+        <v>421108.0622605161</v>
       </c>
       <c r="F154" t="n">
-        <v>7573716.369393107</v>
+        <v>7573695.503520701</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7999,13 +7999,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L154" t="n">
-        <v>-78.87324748327956</v>
+        <v>-40.685858178942</v>
       </c>
       <c r="M154" t="n">
-        <v>35.75128574576229</v>
+        <v>14.88541333936155</v>
       </c>
       <c r="N154" t="n">
-        <v>86.59759581555258</v>
+        <v>43.32337228379878</v>
       </c>
       <c r="O154" t="n">
         <v>307.0024239049048</v>
@@ -8025,10 +8025,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E155" t="n">
-        <v>421070.8793928585</v>
+        <v>421118.7574546413</v>
       </c>
       <c r="F155" t="n">
-        <v>7573753.31389092</v>
+        <v>7573718.665263862</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8048,13 +8048,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L155" t="n">
-        <v>-77.86872583650984</v>
+        <v>-29.99066405376652</v>
       </c>
       <c r="M155" t="n">
-        <v>72.69578355830163</v>
+        <v>38.04715650063008</v>
       </c>
       <c r="N155" t="n">
-        <v>106.5280029408088</v>
+        <v>48.44611489241755</v>
       </c>
       <c r="O155" t="n">
         <v>307.0024239049048</v>
@@ -8074,10 +8074,10 @@
         <v>7573680.618107362</v>
       </c>
       <c r="E156" t="n">
-        <v>421092.202555016</v>
+        <v>421078.709697731</v>
       </c>
       <c r="F156" t="n">
-        <v>7573741.840656002</v>
+        <v>7573728.73707558</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8097,13 +8097,13 @@
         <v>-306.4132776381448</v>
       </c>
       <c r="L156" t="n">
-        <v>-56.54556367901387</v>
+        <v>-70.03842096409062</v>
       </c>
       <c r="M156" t="n">
-        <v>61.22254864033312</v>
+        <v>48.11896821856499</v>
       </c>
       <c r="N156" t="n">
-        <v>83.34027378042003</v>
+        <v>84.97538180886529</v>
       </c>
       <c r="O156" t="n">
         <v>307.0024239049048</v>
@@ -8123,10 +8123,10 @@
         <v>7573657.736952459</v>
       </c>
       <c r="E157" t="n">
-        <v>421062.0842815978</v>
+        <v>421108.1104015188</v>
       </c>
       <c r="F157" t="n">
-        <v>7573715.46313848</v>
+        <v>7573685.829115455</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8146,13 +8146,13 @@
         <v>-329.2944325413555</v>
       </c>
       <c r="L157" t="n">
-        <v>40.04233121860307</v>
+        <v>86.06845113961026</v>
       </c>
       <c r="M157" t="n">
-        <v>57.72618602123111</v>
+        <v>28.09216299653053</v>
       </c>
       <c r="N157" t="n">
-        <v>70.25454321236522</v>
+        <v>90.53699742864856</v>
       </c>
       <c r="O157" t="n">
         <v>346.4581114506526</v>
@@ -8172,10 +8172,10 @@
         <v>7573657.736952459</v>
       </c>
       <c r="E158" t="n">
-        <v>421052.3600146255</v>
+        <v>421077.6411677675</v>
       </c>
       <c r="F158" t="n">
-        <v>7573763.708183444</v>
+        <v>7573759.20039097</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8195,13 +8195,13 @@
         <v>-329.2944325413555</v>
       </c>
       <c r="L158" t="n">
-        <v>30.31806424638489</v>
+        <v>55.59921738831326</v>
       </c>
       <c r="M158" t="n">
-        <v>105.9712309855968</v>
+        <v>101.4634385118261</v>
       </c>
       <c r="N158" t="n">
-        <v>110.2228960618012</v>
+        <v>115.6983246587263</v>
       </c>
       <c r="O158" t="n">
         <v>346.4581114506526</v>
@@ -8221,10 +8221,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E159" t="n">
-        <v>424594.3657046668</v>
+        <v>424593.8503776905</v>
       </c>
       <c r="F159" t="n">
-        <v>7576181.947013309</v>
+        <v>7576182.768463756</v>
       </c>
       <c r="G159" t="n">
         <v>7</v>
@@ -8244,13 +8244,13 @@
         <v>4.206331346450107</v>
       </c>
       <c r="L159" t="n">
-        <v>-7.246599382313434</v>
+        <v>-7.761926358623896</v>
       </c>
       <c r="M159" t="n">
-        <v>227.2384856771678</v>
+        <v>228.0599361239001</v>
       </c>
       <c r="N159" t="n">
-        <v>227.3540027698218</v>
+        <v>228.1919848847328</v>
       </c>
       <c r="O159" t="n">
         <v>750.2996260564154</v>
@@ -8270,10 +8270,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E160" t="n">
-        <v>424488.8749241703</v>
+        <v>424549.1667537361</v>
       </c>
       <c r="F160" t="n">
-        <v>7576082.647553818</v>
+        <v>7576046.301349057</v>
       </c>
       <c r="G160" t="n">
         <v>8</v>
@@ -8293,13 +8293,13 @@
         <v>185.3827432570979</v>
       </c>
       <c r="L160" t="n">
-        <v>-112.7373798788176</v>
+        <v>-52.44555031292839</v>
       </c>
       <c r="M160" t="n">
-        <v>127.9390261862427</v>
+        <v>91.59282142482698</v>
       </c>
       <c r="N160" t="n">
-        <v>170.5230519414455</v>
+        <v>105.5451594540751</v>
       </c>
       <c r="O160" t="n">
         <v>1060.240461805684</v>
@@ -8319,10 +8319,10 @@
         <v>7575954.708527632</v>
       </c>
       <c r="E161" t="n">
-        <v>424548.542683285</v>
+        <v>424594.7595316913</v>
       </c>
       <c r="F161" t="n">
-        <v>7576105.137394161</v>
+        <v>7576103.345830088</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
@@ -8342,13 +8342,13 @@
         <v>171.753767632081</v>
       </c>
       <c r="L161" t="n">
-        <v>-53.06962076405762</v>
+        <v>-6.852772357815411</v>
       </c>
       <c r="M161" t="n">
-        <v>150.4288665289059</v>
+        <v>148.6373024554923</v>
       </c>
       <c r="N161" t="n">
-        <v>159.5156059237224</v>
+        <v>148.7951886662789</v>
       </c>
       <c r="O161" t="n">
         <v>971.8355815744785</v>
@@ -8368,10 +8368,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E162" t="n">
-        <v>421176.219550533</v>
+        <v>421329.5422699229</v>
       </c>
       <c r="F162" t="n">
-        <v>7573745.12722605</v>
+        <v>7573718.232600634</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8391,13 +8391,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L162" t="n">
-        <v>-42.52181037323317</v>
+        <v>110.8009090166306</v>
       </c>
       <c r="M162" t="n">
-        <v>-65.3524315059185</v>
+        <v>-92.24705692194402</v>
       </c>
       <c r="N162" t="n">
-        <v>77.96822853671212</v>
+        <v>144.1747583652285</v>
       </c>
       <c r="O162" t="n">
         <v>197.7173317929186</v>
@@ -8417,10 +8417,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E163" t="n">
-        <v>421225.7152706755</v>
+        <v>421395.6970027761</v>
       </c>
       <c r="F163" t="n">
-        <v>7573715.511762668</v>
+        <v>7573648.070331478</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8440,13 +8440,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L163" t="n">
-        <v>6.973909769207239</v>
+        <v>176.9556418698048</v>
       </c>
       <c r="M163" t="n">
-        <v>-94.96789488755167</v>
+        <v>-162.4093260783702</v>
       </c>
       <c r="N163" t="n">
-        <v>95.22361302136201</v>
+        <v>240.1876108103518</v>
       </c>
       <c r="O163" t="n">
         <v>197.7173317929186</v>
@@ -8466,10 +8466,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E164" t="n">
-        <v>421121.6781916168</v>
+        <v>421236.6771479623</v>
       </c>
       <c r="F164" t="n">
-        <v>7573713.160256208</v>
+        <v>7573706.366600509</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8489,13 +8489,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L164" t="n">
-        <v>-97.06316928949673</v>
+        <v>17.93578705599066</v>
       </c>
       <c r="M164" t="n">
-        <v>-97.31940134800971</v>
+        <v>-104.1130570471287</v>
       </c>
       <c r="N164" t="n">
-        <v>137.4493532587785</v>
+        <v>105.6466805205753</v>
       </c>
       <c r="O164" t="n">
         <v>197.7173317929186</v>
@@ -8515,10 +8515,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E165" t="n">
-        <v>421146.6386086283</v>
+        <v>421202.0402103142</v>
       </c>
       <c r="F165" t="n">
-        <v>7573885.494743826</v>
+        <v>7573876.642635931</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8538,13 +8538,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L165" t="n">
-        <v>-72.10275227797683</v>
+        <v>-16.70115059206728</v>
       </c>
       <c r="M165" t="n">
-        <v>75.01508626993746</v>
+        <v>66.16297837533057</v>
       </c>
       <c r="N165" t="n">
-        <v>104.0484024584013</v>
+        <v>68.23831869700022</v>
       </c>
       <c r="O165" t="n">
         <v>197.7173317929186</v>
@@ -8564,10 +8564,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E166" t="n">
-        <v>421135.5343356968</v>
+        <v>421191.8055159227</v>
       </c>
       <c r="F166" t="n">
-        <v>7573853.204655029</v>
+        <v>7573832.29331605</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8587,13 +8587,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L166" t="n">
-        <v>-83.20702520949999</v>
+        <v>-26.93584498355631</v>
       </c>
       <c r="M166" t="n">
-        <v>42.72499747294933</v>
+        <v>21.81365849357098</v>
       </c>
       <c r="N166" t="n">
-        <v>93.53520435257462</v>
+        <v>34.66086325890221</v>
       </c>
       <c r="O166" t="n">
         <v>197.7173317929186</v>
@@ -8613,10 +8613,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E167" t="n">
-        <v>421135.6814653686</v>
+        <v>421176.8569424228</v>
       </c>
       <c r="F167" t="n">
-        <v>7573895.829154289</v>
+        <v>7573892.689655199</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8636,13 +8636,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L167" t="n">
-        <v>-83.05989553767722</v>
+        <v>-41.88441848347429</v>
       </c>
       <c r="M167" t="n">
-        <v>85.34949673339725</v>
+        <v>82.20999764278531</v>
       </c>
       <c r="N167" t="n">
-        <v>119.0944282465559</v>
+        <v>92.26477238971312</v>
       </c>
       <c r="O167" t="n">
         <v>197.7173317929186</v>
@@ -8662,10 +8662,10 @@
         <v>7573810.479657556</v>
       </c>
       <c r="E168" t="n">
-        <v>421144.5712700346</v>
+        <v>421227.5503034965</v>
       </c>
       <c r="F168" t="n">
-        <v>7573939.024125604</v>
+        <v>7573901.01204106</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8685,13 +8685,13 @@
         <v>-176.5517274439335</v>
       </c>
       <c r="L168" t="n">
-        <v>-74.17009087168844</v>
+        <v>8.808942590258084</v>
       </c>
       <c r="M168" t="n">
-        <v>128.5444680480286</v>
+        <v>90.53238350432366</v>
       </c>
       <c r="N168" t="n">
-        <v>148.4078254192318</v>
+        <v>90.95993586482126</v>
       </c>
       <c r="O168" t="n">
         <v>197.7173317929186</v>
@@ -8711,10 +8711,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E169" t="n">
-        <v>421108.5859795111</v>
+        <v>421103.9884055333</v>
       </c>
       <c r="F169" t="n">
-        <v>7573902.523756864</v>
+        <v>7573883.364318701</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8734,13 +8734,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L169" t="n">
-        <v>-114.3328325375915</v>
+        <v>-118.9304065154865</v>
       </c>
       <c r="M169" t="n">
-        <v>-106.2314218319952</v>
+        <v>-125.3908599950373</v>
       </c>
       <c r="N169" t="n">
-        <v>156.0676506535427</v>
+        <v>172.821611392308</v>
       </c>
       <c r="O169" t="n">
         <v>95.67978391929492</v>
@@ -8760,10 +8760,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E170" t="n">
-        <v>421132.2200539297</v>
+        <v>421157.0478425698</v>
       </c>
       <c r="F170" t="n">
-        <v>7573917.303382457</v>
+        <v>7573873.098299269</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8783,13 +8783,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L170" t="n">
-        <v>-90.69875811907696</v>
+        <v>-65.87096947897226</v>
       </c>
       <c r="M170" t="n">
-        <v>-91.45179623924196</v>
+        <v>-135.6568794278428</v>
       </c>
       <c r="N170" t="n">
-        <v>128.8009928522551</v>
+        <v>150.8037584286279</v>
       </c>
       <c r="O170" t="n">
         <v>95.67978391929492</v>
@@ -8809,10 +8809,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E171" t="n">
-        <v>421049.6572882512</v>
+        <v>421105.8864617423</v>
       </c>
       <c r="F171" t="n">
-        <v>7573704.321940996</v>
+        <v>7573654.977051341</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8832,13 +8832,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L171" t="n">
-        <v>-173.261523797526</v>
+        <v>-117.0323503063992</v>
       </c>
       <c r="M171" t="n">
-        <v>-304.4332377007231</v>
+        <v>-353.7781273555011</v>
       </c>
       <c r="N171" t="n">
-        <v>350.2843870993763</v>
+        <v>372.6332438382341</v>
       </c>
       <c r="O171" t="n">
         <v>95.67978391929492</v>
@@ -8858,10 +8858,10 @@
         <v>7574008.755178696</v>
       </c>
       <c r="E172" t="n">
-        <v>421050.0710020605</v>
+        <v>421084.0250997023</v>
       </c>
       <c r="F172" t="n">
-        <v>7573703.711159468</v>
+        <v>7573664.397745599</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8881,13 +8881,13 @@
         <v>21.72379369661212</v>
       </c>
       <c r="L172" t="n">
-        <v>-172.8478099881904</v>
+        <v>-138.893712346442</v>
       </c>
       <c r="M172" t="n">
-        <v>-305.0440192287788</v>
+        <v>-344.357433097437</v>
       </c>
       <c r="N172" t="n">
-        <v>350.6112078712846</v>
+        <v>371.3132169191288</v>
       </c>
       <c r="O172" t="n">
         <v>95.67978391929492</v>
@@ -8907,10 +8907,10 @@
         <v>7573964.485934421</v>
       </c>
       <c r="E173" t="n">
-        <v>421058.204357393</v>
+        <v>421077.7950708942</v>
       </c>
       <c r="F173" t="n">
-        <v>7573873.13338236</v>
+        <v>7573882.104971397</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8930,13 +8930,13 @@
         <v>-22.54545057844371</v>
       </c>
       <c r="L173" t="n">
-        <v>-10.84733317332575</v>
+        <v>8.743380327825435</v>
       </c>
       <c r="M173" t="n">
-        <v>-91.35255206096917</v>
+        <v>-82.3809630246833</v>
       </c>
       <c r="N173" t="n">
-        <v>91.99431180798744</v>
+        <v>82.84364651819257</v>
       </c>
       <c r="O173" t="n">
         <v>64.73873093680069</v>
@@ -8956,10 +8956,10 @@
         <v>7573964.485934421</v>
       </c>
       <c r="E174" t="n">
-        <v>421085.1358337963</v>
+        <v>421084.4763715343</v>
       </c>
       <c r="F174" t="n">
-        <v>7573892.392601513</v>
+        <v>7573876.342961823</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8979,13 +8979,13 @@
         <v>-22.54545057844371</v>
       </c>
       <c r="L174" t="n">
-        <v>16.08414322999306</v>
+        <v>15.42468096793164</v>
       </c>
       <c r="M174" t="n">
-        <v>-72.09333290811628</v>
+        <v>-88.14297259878367</v>
       </c>
       <c r="N174" t="n">
-        <v>73.86574519520813</v>
+        <v>89.48242509852089</v>
       </c>
       <c r="O174" t="n">
         <v>64.73873093680069</v>
@@ -9005,10 +9005,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E175" t="n">
-        <v>421018.3930805339</v>
+        <v>421066.2569216267</v>
       </c>
       <c r="F175" t="n">
-        <v>7573647.073209315</v>
+        <v>7573698.202722513</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9028,13 +9028,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L175" t="n">
-        <v>-96.37658239965094</v>
+        <v>-48.51274130685488</v>
       </c>
       <c r="M175" t="n">
-        <v>-33.81844496820122</v>
+        <v>17.31106823030859</v>
       </c>
       <c r="N175" t="n">
-        <v>102.1378130522872</v>
+        <v>51.50882596584999</v>
       </c>
       <c r="O175" t="n">
         <v>306.5054328387463</v>
@@ -9054,10 +9054,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E176" t="n">
-        <v>421078.1282454755</v>
+        <v>421130.6901353673</v>
       </c>
       <c r="F176" t="n">
-        <v>7573774.079460365</v>
+        <v>7573765.749718133</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9077,13 +9077,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L176" t="n">
-        <v>-36.64141745812958</v>
+        <v>15.92047243373236</v>
       </c>
       <c r="M176" t="n">
-        <v>93.18780608195812</v>
+        <v>84.85806385055184</v>
       </c>
       <c r="N176" t="n">
-        <v>100.1327153117779</v>
+        <v>86.33859185194976</v>
       </c>
       <c r="O176" t="n">
         <v>306.5054328387463</v>
@@ -9103,10 +9103,10 @@
         <v>7573680.891654283</v>
       </c>
       <c r="E177" t="n">
-        <v>421190.5668643573</v>
+        <v>421476.1139458196</v>
       </c>
       <c r="F177" t="n">
-        <v>7573650.410502492</v>
+        <v>7573670.73303778</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9126,13 +9126,13 @@
         <v>-306.1397307170555</v>
       </c>
       <c r="L177" t="n">
-        <v>75.79720142367296</v>
+        <v>361.3442828859552</v>
       </c>
       <c r="M177" t="n">
-        <v>-30.48115179128945</v>
+        <v>-10.15861650276929</v>
       </c>
       <c r="N177" t="n">
-        <v>81.69648926474429</v>
+        <v>361.4870513083637</v>
       </c>
       <c r="O177" t="n">
         <v>306.5054328387463</v>
